--- a/mfa/S_cerevisiae/run_files/CENPK_batch/scAMM_CENPK_completeMFA.xlsx
+++ b/mfa/S_cerevisiae/run_files/CENPK_batch/scAMM_CENPK_completeMFA.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10778" uniqueCount="1824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10764" uniqueCount="1822">
   <si>
     <t xml:space="preserve">maps</t>
   </si>
@@ -3615,12 +3615,6 @@
   </si>
   <si>
     <t xml:space="preserve">2OBUTt_c_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oaa_m --&gt; oaa_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OAAt_c_m</t>
   </si>
   <si>
     <t xml:space="preserve">pyr_c + fadh2_c --&gt; lac__D_c + fad_c + h_c</t>
@@ -5533,7 +5527,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5543,7 +5537,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE8F2A1"/>
-        <bgColor rgb="FFFFFFA6"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -5596,12 +5590,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFA6"/>
-        <bgColor rgb="FFE8F2A1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB3CAC7"/>
         <bgColor rgb="FFAFD095"/>
       </patternFill>
@@ -5648,7 +5636,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5701,10 +5689,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5717,7 +5701,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFD8CE"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -5734,7 +5718,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFE8F2A1"/>
+      <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -5751,7 +5735,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFFA6"/>
+      <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FFB7B3CA"/>
@@ -5782,12 +5766,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1534"/>
+  <dimension ref="A1:H1532"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A1041" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A987" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1064" activeCellId="0" sqref="A1064"/>
+      <selection pane="bottomLeft" activeCell="A1005" activeCellId="0" sqref="A1005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30001,13 +29985,13 @@
     </row>
     <row r="1053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="12" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B1053" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C1053" s="12" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D1053" s="12" t="s">
         <v>11</v>
@@ -30024,13 +30008,13 @@
     </row>
     <row r="1054" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="12" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B1054" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C1054" s="12" t="s">
-        <v>265</v>
+        <v>550</v>
       </c>
       <c r="D1054" s="12" t="s">
         <v>17</v>
@@ -30046,371 +30030,371 @@
       </c>
     </row>
     <row r="1055" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1055" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1055" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1055" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D1055" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1055" s="13" t="s">
+      <c r="A1055" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1055" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1055" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1055" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1055" s="0" t="s">
         <v>1200</v>
       </c>
-      <c r="F1055" s="13" t="s">
+      <c r="F1055" s="0" t="s">
         <v>1201</v>
       </c>
-      <c r="G1055" s="13" t="s">
-        <v>27</v>
+      <c r="G1055" s="0" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1056" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1056" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1056" s="13" t="s">
-        <v>550</v>
-      </c>
-      <c r="D1056" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1056" s="13" t="s">
+      <c r="A1056" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1056" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1056" s="0" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D1056" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1056" s="0" t="s">
         <v>1200</v>
       </c>
-      <c r="F1056" s="13" t="s">
+      <c r="F1056" s="0" t="s">
         <v>1201</v>
       </c>
-      <c r="G1056" s="13" t="s">
-        <v>27</v>
+      <c r="G1056" s="0" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="0" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="B1057" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1057" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D1057" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1057" s="0" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F1057" s="0" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G1057" s="0" t="s">
         <v>1202</v>
-      </c>
-      <c r="F1057" s="0" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G1057" s="0" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="0" t="s">
-        <v>50</v>
+        <v>1147</v>
       </c>
       <c r="B1058" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1058" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D1058" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1058" s="0" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F1058" s="0" t="s">
         <v>1205</v>
       </c>
-      <c r="D1058" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1058" s="0" t="s">
+      <c r="G1058" s="0" t="s">
         <v>1202</v>
-      </c>
-      <c r="F1058" s="0" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G1058" s="0" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B1059" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1059" s="0" t="s">
-        <v>182</v>
+        <v>1207</v>
       </c>
       <c r="D1059" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E1059" s="0" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F1059" s="0" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="G1059" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="0" t="s">
-        <v>1147</v>
+        <v>187</v>
       </c>
       <c r="B1060" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1060" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1060" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1060" s="0" t="s">
         <v>1208</v>
       </c>
-      <c r="D1060" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1060" s="0" t="s">
-        <v>1206</v>
-      </c>
       <c r="F1060" s="0" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="G1060" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B1061" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1061" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D1061" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1061" s="0" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F1061" s="0" t="s">
         <v>1209</v>
       </c>
-      <c r="D1061" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1061" s="0" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F1061" s="0" t="s">
-        <v>1207</v>
-      </c>
       <c r="G1061" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B1062" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1062" s="0" t="s">
-        <v>188</v>
+        <v>1207</v>
       </c>
       <c r="D1062" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1062" s="0" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F1062" s="0" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="G1062" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B1063" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1063" s="0" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D1063" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1063" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F1063" s="0" t="s">
         <v>1212</v>
       </c>
-      <c r="D1063" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1063" s="0" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F1063" s="0" t="s">
-        <v>1211</v>
-      </c>
       <c r="G1063" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="0" t="s">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="B1064" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1064" s="0" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="D1064" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1064" s="0" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F1064" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="G1064" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="0" t="s">
-        <v>185</v>
+        <v>1018</v>
       </c>
       <c r="B1065" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1065" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D1065" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1065" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F1065" s="0" t="s">
         <v>1215</v>
       </c>
-      <c r="D1065" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1065" s="0" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F1065" s="0" t="s">
-        <v>1214</v>
-      </c>
       <c r="G1065" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="0" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B1066" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1066" s="0" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D1066" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1066" s="0" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F1066" s="0" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="G1066" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="0" t="s">
-        <v>1018</v>
+        <v>79</v>
       </c>
       <c r="B1067" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1067" s="0" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D1067" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1067" s="0" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F1067" s="0" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="G1067" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="0" t="s">
-        <v>87</v>
+        <v>1216</v>
       </c>
       <c r="B1068" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1068" s="0" t="s">
-        <v>1208</v>
+        <v>1217</v>
       </c>
       <c r="D1068" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E1068" s="0" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F1068" s="0" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="G1068" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="0" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B1069" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1069" s="0" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
       <c r="D1069" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1069" s="0" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="F1069" s="0" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="G1069" s="0" t="s">
-        <v>1204</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="0" t="s">
-        <v>1218</v>
+        <v>23</v>
       </c>
       <c r="B1070" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1070" s="0" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D1070" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1070" s="0" t="s">
         <v>1219</v>
       </c>
-      <c r="D1070" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1070" s="0" t="s">
-        <v>1216</v>
-      </c>
       <c r="F1070" s="0" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="G1070" s="0" t="s">
-        <v>1204</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30421,7 +30405,7 @@
         <v>9</v>
       </c>
       <c r="C1071" s="0" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="D1071" s="0" t="s">
         <v>11</v>
@@ -30444,7 +30428,7 @@
         <v>9</v>
       </c>
       <c r="C1072" s="0" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="D1072" s="0" t="s">
         <v>17</v>
@@ -30467,16 +30451,16 @@
         <v>9</v>
       </c>
       <c r="C1073" s="0" t="s">
-        <v>1219</v>
+        <v>31</v>
       </c>
       <c r="D1073" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1073" s="0" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="F1073" s="0" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="G1073" s="0" t="s">
         <v>27</v>
@@ -30490,16 +30474,16 @@
         <v>9</v>
       </c>
       <c r="C1074" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D1074" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1074" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F1074" s="0" t="s">
         <v>1225</v>
-      </c>
-      <c r="D1074" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1074" s="0" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F1074" s="0" t="s">
-        <v>1224</v>
       </c>
       <c r="G1074" s="0" t="s">
         <v>27</v>
@@ -30513,16 +30497,16 @@
         <v>9</v>
       </c>
       <c r="C1075" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D1075" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1075" s="0" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="F1075" s="0" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="G1075" s="0" t="s">
         <v>27</v>
@@ -30536,16 +30520,16 @@
         <v>9</v>
       </c>
       <c r="C1076" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D1076" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1076" s="0" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F1076" s="0" t="s">
         <v>1228</v>
-      </c>
-      <c r="D1076" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1076" s="0" t="s">
-        <v>1226</v>
-      </c>
-      <c r="F1076" s="0" t="s">
-        <v>1227</v>
       </c>
       <c r="G1076" s="0" t="s">
         <v>27</v>
@@ -30559,16 +30543,16 @@
         <v>9</v>
       </c>
       <c r="C1077" s="0" t="s">
-        <v>24</v>
+        <v>1229</v>
       </c>
       <c r="D1077" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1077" s="0" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="F1077" s="0" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="G1077" s="0" t="s">
         <v>27</v>
@@ -30582,16 +30566,16 @@
         <v>9</v>
       </c>
       <c r="C1078" s="0" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D1078" s="0" t="s">
         <v>17</v>
       </c>
       <c r="E1078" s="0" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="F1078" s="0" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="G1078" s="0" t="s">
         <v>27</v>
@@ -30605,7 +30589,7 @@
         <v>9</v>
       </c>
       <c r="C1079" s="0" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="D1079" s="0" t="s">
         <v>11</v>
@@ -30628,7 +30612,7 @@
         <v>9</v>
       </c>
       <c r="C1080" s="0" t="s">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="D1080" s="0" t="s">
         <v>17</v>
@@ -30645,22 +30629,22 @@
     </row>
     <row r="1081" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1081" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1081" s="0" t="s">
-        <v>1228</v>
+        <v>233</v>
       </c>
       <c r="D1081" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1081" s="0" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="F1081" s="0" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="G1081" s="0" t="s">
         <v>27</v>
@@ -30668,22 +30652,22 @@
     </row>
     <row r="1082" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1082" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1082" s="0" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D1082" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1082" s="0" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1082" s="0" t="s">
         <v>1236</v>
-      </c>
-      <c r="D1082" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1082" s="0" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F1082" s="0" t="s">
-        <v>1235</v>
       </c>
       <c r="G1082" s="0" t="s">
         <v>27</v>
@@ -30697,16 +30681,16 @@
         <v>9</v>
       </c>
       <c r="C1083" s="0" t="s">
-        <v>233</v>
+        <v>1238</v>
       </c>
       <c r="D1083" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1083" s="0" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="F1083" s="0" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="G1083" s="0" t="s">
         <v>27</v>
@@ -30720,16 +30704,16 @@
         <v>9</v>
       </c>
       <c r="C1084" s="0" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D1084" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1084" s="0" t="s">
         <v>1239</v>
       </c>
-      <c r="D1084" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1084" s="0" t="s">
-        <v>1237</v>
-      </c>
       <c r="F1084" s="0" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="G1084" s="0" t="s">
         <v>27</v>
@@ -30743,7 +30727,7 @@
         <v>9</v>
       </c>
       <c r="C1085" s="0" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="D1085" s="0" t="s">
         <v>11</v>
@@ -30766,7 +30750,7 @@
         <v>9</v>
       </c>
       <c r="C1086" s="0" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="D1086" s="0" t="s">
         <v>17</v>
@@ -30783,22 +30767,22 @@
     </row>
     <row r="1087" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="0" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B1087" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1087" s="0" t="s">
-        <v>1239</v>
+        <v>146</v>
       </c>
       <c r="D1087" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1087" s="0" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="F1087" s="0" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="G1087" s="0" t="s">
         <v>27</v>
@@ -30806,22 +30790,22 @@
     </row>
     <row r="1088" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="0" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B1088" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1088" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D1088" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1088" s="0" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F1088" s="0" t="s">
         <v>1245</v>
-      </c>
-      <c r="D1088" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1088" s="0" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F1088" s="0" t="s">
-        <v>1244</v>
       </c>
       <c r="G1088" s="0" t="s">
         <v>27</v>
@@ -30835,16 +30819,16 @@
         <v>9</v>
       </c>
       <c r="C1089" s="0" t="s">
-        <v>146</v>
+        <v>260</v>
       </c>
       <c r="D1089" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1089" s="0" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="F1089" s="0" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="G1089" s="0" t="s">
         <v>27</v>
@@ -30858,16 +30842,16 @@
         <v>9</v>
       </c>
       <c r="C1090" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D1090" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1090" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F1090" s="0" t="s">
         <v>1248</v>
-      </c>
-      <c r="D1090" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1090" s="0" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F1090" s="0" t="s">
-        <v>1247</v>
       </c>
       <c r="G1090" s="0" t="s">
         <v>27</v>
@@ -30881,16 +30865,16 @@
         <v>9</v>
       </c>
       <c r="C1091" s="0" t="s">
-        <v>260</v>
+        <v>1249</v>
       </c>
       <c r="D1091" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1091" s="0" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="F1091" s="0" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="G1091" s="0" t="s">
         <v>27</v>
@@ -30904,16 +30888,16 @@
         <v>9</v>
       </c>
       <c r="C1092" s="0" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D1092" s="0" t="s">
         <v>17</v>
       </c>
       <c r="E1092" s="0" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="F1092" s="0" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="G1092" s="0" t="s">
         <v>27</v>
@@ -30927,7 +30911,7 @@
         <v>9</v>
       </c>
       <c r="C1093" s="0" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="D1093" s="0" t="s">
         <v>11</v>
@@ -30950,7 +30934,7 @@
         <v>9</v>
       </c>
       <c r="C1094" s="0" t="s">
-        <v>1248</v>
+        <v>1254</v>
       </c>
       <c r="D1094" s="0" t="s">
         <v>17</v>
@@ -30967,22 +30951,22 @@
     </row>
     <row r="1095" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1095" s="0" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B1095" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1095" s="0" t="s">
-        <v>1248</v>
+        <v>243</v>
       </c>
       <c r="D1095" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1095" s="0" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="F1095" s="0" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="G1095" s="0" t="s">
         <v>27</v>
@@ -30990,22 +30974,22 @@
     </row>
     <row r="1096" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="0" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B1096" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1096" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D1096" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1096" s="0" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F1096" s="0" t="s">
         <v>1256</v>
-      </c>
-      <c r="D1096" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1096" s="0" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F1096" s="0" t="s">
-        <v>1255</v>
       </c>
       <c r="G1096" s="0" t="s">
         <v>27</v>
@@ -31019,16 +31003,16 @@
         <v>9</v>
       </c>
       <c r="C1097" s="0" t="s">
-        <v>243</v>
+        <v>1258</v>
       </c>
       <c r="D1097" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1097" s="0" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="F1097" s="0" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="G1097" s="0" t="s">
         <v>27</v>
@@ -31042,16 +31026,16 @@
         <v>9</v>
       </c>
       <c r="C1098" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D1098" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1098" s="0" t="s">
         <v>1259</v>
       </c>
-      <c r="D1098" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1098" s="0" t="s">
-        <v>1257</v>
-      </c>
       <c r="F1098" s="0" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="G1098" s="0" t="s">
         <v>27</v>
@@ -31065,7 +31049,7 @@
         <v>9</v>
       </c>
       <c r="C1099" s="0" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="D1099" s="0" t="s">
         <v>11</v>
@@ -31088,7 +31072,7 @@
         <v>9</v>
       </c>
       <c r="C1100" s="0" t="s">
-        <v>1259</v>
+        <v>1263</v>
       </c>
       <c r="D1100" s="0" t="s">
         <v>17</v>
@@ -31111,16 +31095,16 @@
         <v>9</v>
       </c>
       <c r="C1101" s="0" t="s">
-        <v>1259</v>
+        <v>471</v>
       </c>
       <c r="D1101" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1101" s="0" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="F1101" s="0" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="G1101" s="0" t="s">
         <v>27</v>
@@ -31134,16 +31118,16 @@
         <v>9</v>
       </c>
       <c r="C1102" s="0" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D1102" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1102" s="0" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F1102" s="0" t="s">
         <v>1265</v>
-      </c>
-      <c r="D1102" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1102" s="0" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F1102" s="0" t="s">
-        <v>1264</v>
       </c>
       <c r="G1102" s="0" t="s">
         <v>27</v>
@@ -31157,16 +31141,16 @@
         <v>9</v>
       </c>
       <c r="C1103" s="0" t="s">
-        <v>471</v>
+        <v>1267</v>
       </c>
       <c r="D1103" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1103" s="0" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="F1103" s="0" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="G1103" s="0" t="s">
         <v>27</v>
@@ -31180,16 +31164,16 @@
         <v>9</v>
       </c>
       <c r="C1104" s="0" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D1104" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1104" s="0" t="s">
         <v>1268</v>
       </c>
-      <c r="D1104" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1104" s="0" t="s">
-        <v>1266</v>
-      </c>
       <c r="F1104" s="0" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="G1104" s="0" t="s">
         <v>27</v>
@@ -31203,7 +31187,7 @@
         <v>9</v>
       </c>
       <c r="C1105" s="0" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="D1105" s="0" t="s">
         <v>11</v>
@@ -31226,7 +31210,7 @@
         <v>9</v>
       </c>
       <c r="C1106" s="0" t="s">
-        <v>1268</v>
+        <v>1272</v>
       </c>
       <c r="D1106" s="0" t="s">
         <v>17</v>
@@ -31243,22 +31227,22 @@
     </row>
     <row r="1107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="0" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B1107" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1107" s="0" t="s">
-        <v>1268</v>
+        <v>138</v>
       </c>
       <c r="D1107" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1107" s="0" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="F1107" s="0" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="G1107" s="0" t="s">
         <v>27</v>
@@ -31266,22 +31250,22 @@
     </row>
     <row r="1108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="0" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B1108" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1108" s="0" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D1108" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1108" s="0" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F1108" s="0" t="s">
         <v>1274</v>
-      </c>
-      <c r="D1108" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1108" s="0" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F1108" s="0" t="s">
-        <v>1273</v>
       </c>
       <c r="G1108" s="0" t="s">
         <v>27</v>
@@ -31295,16 +31279,16 @@
         <v>9</v>
       </c>
       <c r="C1109" s="0" t="s">
-        <v>138</v>
+        <v>487</v>
       </c>
       <c r="D1109" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1109" s="0" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="F1109" s="0" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="G1109" s="0" t="s">
         <v>27</v>
@@ -31318,16 +31302,16 @@
         <v>9</v>
       </c>
       <c r="C1110" s="0" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D1110" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1110" s="0" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1110" s="0" t="s">
         <v>1277</v>
-      </c>
-      <c r="D1110" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1110" s="0" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F1110" s="0" t="s">
-        <v>1276</v>
       </c>
       <c r="G1110" s="0" t="s">
         <v>27</v>
@@ -31341,16 +31325,16 @@
         <v>9</v>
       </c>
       <c r="C1111" s="0" t="s">
-        <v>487</v>
+        <v>1278</v>
       </c>
       <c r="D1111" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1111" s="0" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="F1111" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="G1111" s="0" t="s">
         <v>27</v>
@@ -31364,16 +31348,16 @@
         <v>9</v>
       </c>
       <c r="C1112" s="0" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D1112" s="0" t="s">
         <v>17</v>
       </c>
       <c r="E1112" s="0" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="F1112" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="G1112" s="0" t="s">
         <v>27</v>
@@ -31387,7 +31371,7 @@
         <v>9</v>
       </c>
       <c r="C1113" s="0" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="D1113" s="0" t="s">
         <v>11</v>
@@ -31410,7 +31394,7 @@
         <v>9</v>
       </c>
       <c r="C1114" s="0" t="s">
-        <v>1277</v>
+        <v>1283</v>
       </c>
       <c r="D1114" s="0" t="s">
         <v>17</v>
@@ -31427,22 +31411,22 @@
     </row>
     <row r="1115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1115" s="0" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B1115" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1115" s="0" t="s">
-        <v>1277</v>
+        <v>474</v>
       </c>
       <c r="D1115" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1115" s="0" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="F1115" s="0" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="G1115" s="0" t="s">
         <v>27</v>
@@ -31450,22 +31434,22 @@
     </row>
     <row r="1116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1116" s="0" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B1116" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1116" s="0" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D1116" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1116" s="0" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F1116" s="0" t="s">
         <v>1285</v>
-      </c>
-      <c r="D1116" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1116" s="0" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F1116" s="0" t="s">
-        <v>1284</v>
       </c>
       <c r="G1116" s="0" t="s">
         <v>27</v>
@@ -31479,16 +31463,16 @@
         <v>9</v>
       </c>
       <c r="C1117" s="0" t="s">
-        <v>474</v>
+        <v>1287</v>
       </c>
       <c r="D1117" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1117" s="0" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="F1117" s="0" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="G1117" s="0" t="s">
         <v>27</v>
@@ -31502,16 +31486,16 @@
         <v>9</v>
       </c>
       <c r="C1118" s="0" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D1118" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1118" s="0" t="s">
         <v>1288</v>
       </c>
-      <c r="D1118" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1118" s="0" t="s">
-        <v>1286</v>
-      </c>
       <c r="F1118" s="0" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="G1118" s="0" t="s">
         <v>27</v>
@@ -31525,7 +31509,7 @@
         <v>9</v>
       </c>
       <c r="C1119" s="0" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="D1119" s="0" t="s">
         <v>11</v>
@@ -31548,7 +31532,7 @@
         <v>9</v>
       </c>
       <c r="C1120" s="0" t="s">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="D1120" s="0" t="s">
         <v>17</v>
@@ -31565,22 +31549,22 @@
     </row>
     <row r="1121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1121" s="0" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="B1121" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1121" s="0" t="s">
-        <v>1288</v>
+        <v>497</v>
       </c>
       <c r="D1121" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1121" s="0" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="F1121" s="0" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="G1121" s="0" t="s">
         <v>27</v>
@@ -31588,22 +31572,22 @@
     </row>
     <row r="1122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="0" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="B1122" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1122" s="0" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D1122" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1122" s="0" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F1122" s="0" t="s">
         <v>1294</v>
-      </c>
-      <c r="D1122" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1122" s="0" t="s">
-        <v>1292</v>
-      </c>
-      <c r="F1122" s="0" t="s">
-        <v>1293</v>
       </c>
       <c r="G1122" s="0" t="s">
         <v>27</v>
@@ -31617,16 +31601,16 @@
         <v>9</v>
       </c>
       <c r="C1123" s="0" t="s">
-        <v>497</v>
+        <v>1296</v>
       </c>
       <c r="D1123" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1123" s="0" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="F1123" s="0" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="G1123" s="0" t="s">
         <v>27</v>
@@ -31640,16 +31624,16 @@
         <v>9</v>
       </c>
       <c r="C1124" s="0" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D1124" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1124" s="0" t="s">
         <v>1297</v>
       </c>
-      <c r="D1124" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1124" s="0" t="s">
-        <v>1295</v>
-      </c>
       <c r="F1124" s="0" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="G1124" s="0" t="s">
         <v>27</v>
@@ -31663,7 +31647,7 @@
         <v>9</v>
       </c>
       <c r="C1125" s="0" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="D1125" s="0" t="s">
         <v>11</v>
@@ -31686,7 +31670,7 @@
         <v>9</v>
       </c>
       <c r="C1126" s="0" t="s">
-        <v>1297</v>
+        <v>1301</v>
       </c>
       <c r="D1126" s="0" t="s">
         <v>17</v>
@@ -31709,16 +31693,16 @@
         <v>9</v>
       </c>
       <c r="C1127" s="0" t="s">
-        <v>1297</v>
+        <v>525</v>
       </c>
       <c r="D1127" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1127" s="0" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="F1127" s="0" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="G1127" s="0" t="s">
         <v>27</v>
@@ -31732,16 +31716,16 @@
         <v>9</v>
       </c>
       <c r="C1128" s="0" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D1128" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1128" s="0" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F1128" s="0" t="s">
         <v>1303</v>
-      </c>
-      <c r="D1128" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1128" s="0" t="s">
-        <v>1301</v>
-      </c>
-      <c r="F1128" s="0" t="s">
-        <v>1302</v>
       </c>
       <c r="G1128" s="0" t="s">
         <v>27</v>
@@ -31755,16 +31739,16 @@
         <v>9</v>
       </c>
       <c r="C1129" s="0" t="s">
-        <v>525</v>
+        <v>1305</v>
       </c>
       <c r="D1129" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1129" s="0" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="F1129" s="0" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="G1129" s="0" t="s">
         <v>27</v>
@@ -31778,16 +31762,16 @@
         <v>9</v>
       </c>
       <c r="C1130" s="0" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D1130" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1130" s="0" t="s">
         <v>1306</v>
       </c>
-      <c r="D1130" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1130" s="0" t="s">
-        <v>1304</v>
-      </c>
       <c r="F1130" s="0" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="G1130" s="0" t="s">
         <v>27</v>
@@ -31801,7 +31785,7 @@
         <v>9</v>
       </c>
       <c r="C1131" s="0" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="D1131" s="0" t="s">
         <v>11</v>
@@ -31824,7 +31808,7 @@
         <v>9</v>
       </c>
       <c r="C1132" s="0" t="s">
-        <v>1306</v>
+        <v>1310</v>
       </c>
       <c r="D1132" s="0" t="s">
         <v>17</v>
@@ -31841,22 +31825,22 @@
     </row>
     <row r="1133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1133" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B1133" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1133" s="0" t="s">
-        <v>1306</v>
+        <v>231</v>
       </c>
       <c r="D1133" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1133" s="0" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="F1133" s="0" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="G1133" s="0" t="s">
         <v>27</v>
@@ -31864,22 +31848,22 @@
     </row>
     <row r="1134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B1134" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1134" s="0" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D1134" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1134" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F1134" s="0" t="s">
         <v>1312</v>
-      </c>
-      <c r="D1134" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1134" s="0" t="s">
-        <v>1310</v>
-      </c>
-      <c r="F1134" s="0" t="s">
-        <v>1311</v>
       </c>
       <c r="G1134" s="0" t="s">
         <v>27</v>
@@ -31893,16 +31877,16 @@
         <v>9</v>
       </c>
       <c r="C1135" s="0" t="s">
-        <v>231</v>
+        <v>1314</v>
       </c>
       <c r="D1135" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1135" s="0" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="F1135" s="0" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="G1135" s="0" t="s">
         <v>27</v>
@@ -31916,16 +31900,16 @@
         <v>9</v>
       </c>
       <c r="C1136" s="0" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D1136" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1136" s="0" t="s">
         <v>1315</v>
       </c>
-      <c r="D1136" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1136" s="0" t="s">
-        <v>1313</v>
-      </c>
       <c r="F1136" s="0" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="G1136" s="0" t="s">
         <v>27</v>
@@ -31939,7 +31923,7 @@
         <v>9</v>
       </c>
       <c r="C1137" s="0" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="D1137" s="0" t="s">
         <v>11</v>
@@ -31962,7 +31946,7 @@
         <v>9</v>
       </c>
       <c r="C1138" s="0" t="s">
-        <v>1315</v>
+        <v>1319</v>
       </c>
       <c r="D1138" s="0" t="s">
         <v>17</v>
@@ -31985,16 +31969,16 @@
         <v>9</v>
       </c>
       <c r="C1139" s="0" t="s">
-        <v>1315</v>
+        <v>110</v>
       </c>
       <c r="D1139" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1139" s="0" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="F1139" s="0" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G1139" s="0" t="s">
         <v>27</v>
@@ -32008,16 +31992,16 @@
         <v>9</v>
       </c>
       <c r="C1140" s="0" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D1140" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1140" s="0" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F1140" s="0" t="s">
         <v>1321</v>
-      </c>
-      <c r="D1140" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1140" s="0" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F1140" s="0" t="s">
-        <v>1320</v>
       </c>
       <c r="G1140" s="0" t="s">
         <v>27</v>
@@ -32031,16 +32015,16 @@
         <v>9</v>
       </c>
       <c r="C1141" s="0" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D1141" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1141" s="0" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="F1141" s="0" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="G1141" s="0" t="s">
         <v>27</v>
@@ -32054,16 +32038,16 @@
         <v>9</v>
       </c>
       <c r="C1142" s="0" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D1142" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1142" s="0" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F1142" s="0" t="s">
         <v>1324</v>
-      </c>
-      <c r="D1142" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1142" s="0" t="s">
-        <v>1322</v>
-      </c>
-      <c r="F1142" s="0" t="s">
-        <v>1323</v>
       </c>
       <c r="G1142" s="0" t="s">
         <v>27</v>
@@ -32077,16 +32061,16 @@
         <v>9</v>
       </c>
       <c r="C1143" s="0" t="s">
-        <v>40</v>
+        <v>1325</v>
       </c>
       <c r="D1143" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1143" s="0" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="F1143" s="0" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="G1143" s="0" t="s">
         <v>27</v>
@@ -32100,16 +32084,16 @@
         <v>9</v>
       </c>
       <c r="C1144" s="0" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="D1144" s="0" t="s">
         <v>17</v>
       </c>
       <c r="E1144" s="0" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="F1144" s="0" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="G1144" s="0" t="s">
         <v>27</v>
@@ -32123,7 +32107,7 @@
         <v>9</v>
       </c>
       <c r="C1145" s="0" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="D1145" s="0" t="s">
         <v>11</v>
@@ -32146,7 +32130,7 @@
         <v>9</v>
       </c>
       <c r="C1146" s="0" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="D1146" s="0" t="s">
         <v>17</v>
@@ -32163,22 +32147,22 @@
     </row>
     <row r="1147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1147" s="0" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B1147" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1147" s="0" t="s">
-        <v>1324</v>
+        <v>167</v>
       </c>
       <c r="D1147" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1147" s="0" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="F1147" s="0" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="G1147" s="0" t="s">
         <v>27</v>
@@ -32186,22 +32170,22 @@
     </row>
     <row r="1148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1148" s="0" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B1148" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1148" s="0" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D1148" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1148" s="0" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F1148" s="0" t="s">
         <v>1332</v>
-      </c>
-      <c r="D1148" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1148" s="0" t="s">
-        <v>1330</v>
-      </c>
-      <c r="F1148" s="0" t="s">
-        <v>1331</v>
       </c>
       <c r="G1148" s="0" t="s">
         <v>27</v>
@@ -32215,16 +32199,16 @@
         <v>9</v>
       </c>
       <c r="C1149" s="0" t="s">
-        <v>167</v>
+        <v>1153</v>
       </c>
       <c r="D1149" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1149" s="0" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="F1149" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="G1149" s="0" t="s">
         <v>27</v>
@@ -32238,16 +32222,16 @@
         <v>9</v>
       </c>
       <c r="C1150" s="0" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D1150" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1150" s="0" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F1150" s="0" t="s">
         <v>1335</v>
-      </c>
-      <c r="D1150" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1150" s="0" t="s">
-        <v>1333</v>
-      </c>
-      <c r="F1150" s="0" t="s">
-        <v>1334</v>
       </c>
       <c r="G1150" s="0" t="s">
         <v>27</v>
@@ -32261,16 +32245,16 @@
         <v>9</v>
       </c>
       <c r="C1151" s="0" t="s">
-        <v>1153</v>
+        <v>1336</v>
       </c>
       <c r="D1151" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1151" s="0" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="F1151" s="0" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="G1151" s="0" t="s">
         <v>27</v>
@@ -32284,16 +32268,16 @@
         <v>9</v>
       </c>
       <c r="C1152" s="0" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D1152" s="0" t="s">
         <v>17</v>
       </c>
       <c r="E1152" s="0" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="F1152" s="0" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="G1152" s="0" t="s">
         <v>27</v>
@@ -32307,7 +32291,7 @@
         <v>9</v>
       </c>
       <c r="C1153" s="0" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="D1153" s="0" t="s">
         <v>11</v>
@@ -32330,7 +32314,7 @@
         <v>9</v>
       </c>
       <c r="C1154" s="0" t="s">
-        <v>1335</v>
+        <v>1341</v>
       </c>
       <c r="D1154" s="0" t="s">
         <v>17</v>
@@ -32347,22 +32331,22 @@
     </row>
     <row r="1155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1155" s="0" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B1155" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1155" s="0" t="s">
-        <v>1335</v>
+        <v>490</v>
       </c>
       <c r="D1155" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1155" s="0" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="F1155" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G1155" s="0" t="s">
         <v>27</v>
@@ -32370,22 +32354,22 @@
     </row>
     <row r="1156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1156" s="0" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B1156" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1156" s="0" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D1156" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1156" s="0" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F1156" s="0" t="s">
         <v>1343</v>
-      </c>
-      <c r="D1156" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1156" s="0" t="s">
-        <v>1341</v>
-      </c>
-      <c r="F1156" s="0" t="s">
-        <v>1342</v>
       </c>
       <c r="G1156" s="0" t="s">
         <v>27</v>
@@ -32399,16 +32383,16 @@
         <v>9</v>
       </c>
       <c r="C1157" s="0" t="s">
-        <v>490</v>
+        <v>1345</v>
       </c>
       <c r="D1157" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1157" s="0" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="F1157" s="0" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="G1157" s="0" t="s">
         <v>27</v>
@@ -32422,16 +32406,16 @@
         <v>9</v>
       </c>
       <c r="C1158" s="0" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D1158" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1158" s="0" t="s">
         <v>1346</v>
       </c>
-      <c r="D1158" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1158" s="0" t="s">
-        <v>1344</v>
-      </c>
       <c r="F1158" s="0" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="G1158" s="0" t="s">
         <v>27</v>
@@ -32445,7 +32429,7 @@
         <v>9</v>
       </c>
       <c r="C1159" s="0" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="D1159" s="0" t="s">
         <v>11</v>
@@ -32468,7 +32452,7 @@
         <v>9</v>
       </c>
       <c r="C1160" s="0" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="D1160" s="0" t="s">
         <v>17</v>
@@ -32485,22 +32469,22 @@
     </row>
     <row r="1161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1161" s="0" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="B1161" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1161" s="0" t="s">
-        <v>1346</v>
+        <v>634</v>
       </c>
       <c r="D1161" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1161" s="0" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="F1161" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G1161" s="0" t="s">
         <v>27</v>
@@ -32508,22 +32492,22 @@
     </row>
     <row r="1162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="0" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="B1162" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1162" s="0" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D1162" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1162" s="0" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F1162" s="0" t="s">
         <v>1352</v>
-      </c>
-      <c r="D1162" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1162" s="0" t="s">
-        <v>1350</v>
-      </c>
-      <c r="F1162" s="0" t="s">
-        <v>1351</v>
       </c>
       <c r="G1162" s="0" t="s">
         <v>27</v>
@@ -32537,16 +32521,16 @@
         <v>9</v>
       </c>
       <c r="C1163" s="0" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D1163" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1163" s="0" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="F1163" s="0" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G1163" s="0" t="s">
         <v>27</v>
@@ -32560,16 +32544,16 @@
         <v>9</v>
       </c>
       <c r="C1164" s="0" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D1164" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1164" s="0" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F1164" s="0" t="s">
         <v>1355</v>
-      </c>
-      <c r="D1164" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1164" s="0" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F1164" s="0" t="s">
-        <v>1354</v>
       </c>
       <c r="G1164" s="0" t="s">
         <v>27</v>
@@ -32583,16 +32567,16 @@
         <v>9</v>
       </c>
       <c r="C1165" s="0" t="s">
-        <v>637</v>
+        <v>1356</v>
       </c>
       <c r="D1165" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1165" s="0" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F1165" s="0" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G1165" s="0" t="s">
         <v>27</v>
@@ -32606,16 +32590,16 @@
         <v>9</v>
       </c>
       <c r="C1166" s="0" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D1166" s="0" t="s">
         <v>17</v>
       </c>
       <c r="E1166" s="0" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F1166" s="0" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G1166" s="0" t="s">
         <v>27</v>
@@ -32629,7 +32613,7 @@
         <v>9</v>
       </c>
       <c r="C1167" s="0" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="D1167" s="0" t="s">
         <v>11</v>
@@ -32652,7 +32636,7 @@
         <v>9</v>
       </c>
       <c r="C1168" s="0" t="s">
-        <v>1355</v>
+        <v>1361</v>
       </c>
       <c r="D1168" s="0" t="s">
         <v>17</v>
@@ -32675,16 +32659,16 @@
         <v>9</v>
       </c>
       <c r="C1169" s="0" t="s">
-        <v>1355</v>
+        <v>673</v>
       </c>
       <c r="D1169" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1169" s="0" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="F1169" s="0" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G1169" s="0" t="s">
         <v>27</v>
@@ -32698,16 +32682,16 @@
         <v>9</v>
       </c>
       <c r="C1170" s="0" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D1170" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1170" s="0" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F1170" s="0" t="s">
         <v>1363</v>
-      </c>
-      <c r="D1170" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1170" s="0" t="s">
-        <v>1361</v>
-      </c>
-      <c r="F1170" s="0" t="s">
-        <v>1362</v>
       </c>
       <c r="G1170" s="0" t="s">
         <v>27</v>
@@ -32721,16 +32705,16 @@
         <v>9</v>
       </c>
       <c r="C1171" s="0" t="s">
-        <v>673</v>
+        <v>1365</v>
       </c>
       <c r="D1171" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1171" s="0" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="F1171" s="0" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="G1171" s="0" t="s">
         <v>27</v>
@@ -32744,16 +32728,16 @@
         <v>9</v>
       </c>
       <c r="C1172" s="0" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D1172" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1172" s="0" t="s">
         <v>1366</v>
       </c>
-      <c r="D1172" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1172" s="0" t="s">
-        <v>1364</v>
-      </c>
       <c r="F1172" s="0" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="G1172" s="0" t="s">
         <v>27</v>
@@ -32767,7 +32751,7 @@
         <v>9</v>
       </c>
       <c r="C1173" s="0" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="D1173" s="0" t="s">
         <v>11</v>
@@ -32790,7 +32774,7 @@
         <v>9</v>
       </c>
       <c r="C1174" s="0" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="D1174" s="0" t="s">
         <v>17</v>
@@ -32813,16 +32797,16 @@
         <v>9</v>
       </c>
       <c r="C1175" s="0" t="s">
-        <v>1366</v>
+        <v>920</v>
       </c>
       <c r="D1175" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1175" s="0" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="F1175" s="0" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G1175" s="0" t="s">
         <v>27</v>
@@ -32836,16 +32820,16 @@
         <v>9</v>
       </c>
       <c r="C1176" s="0" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D1176" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1176" s="0" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F1176" s="0" t="s">
         <v>1372</v>
-      </c>
-      <c r="D1176" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1176" s="0" t="s">
-        <v>1370</v>
-      </c>
-      <c r="F1176" s="0" t="s">
-        <v>1371</v>
       </c>
       <c r="G1176" s="0" t="s">
         <v>27</v>
@@ -32859,16 +32843,16 @@
         <v>9</v>
       </c>
       <c r="C1177" s="0" t="s">
-        <v>920</v>
+        <v>1374</v>
       </c>
       <c r="D1177" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1177" s="0" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="F1177" s="0" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="G1177" s="0" t="s">
         <v>27</v>
@@ -32882,16 +32866,16 @@
         <v>9</v>
       </c>
       <c r="C1178" s="0" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D1178" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1178" s="0" t="s">
         <v>1375</v>
       </c>
-      <c r="D1178" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1178" s="0" t="s">
-        <v>1373</v>
-      </c>
       <c r="F1178" s="0" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="G1178" s="0" t="s">
         <v>27</v>
@@ -32905,7 +32889,7 @@
         <v>9</v>
       </c>
       <c r="C1179" s="0" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="D1179" s="0" t="s">
         <v>11</v>
@@ -32928,7 +32912,7 @@
         <v>9</v>
       </c>
       <c r="C1180" s="0" t="s">
-        <v>1375</v>
+        <v>1379</v>
       </c>
       <c r="D1180" s="0" t="s">
         <v>17</v>
@@ -32945,22 +32929,22 @@
     </row>
     <row r="1181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1181" s="0" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B1181" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1181" s="0" t="s">
-        <v>1375</v>
+        <v>206</v>
       </c>
       <c r="D1181" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1181" s="0" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="F1181" s="0" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="G1181" s="0" t="s">
         <v>27</v>
@@ -32968,22 +32952,22 @@
     </row>
     <row r="1182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1182" s="0" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B1182" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1182" s="0" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D1182" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1182" s="0" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F1182" s="0" t="s">
         <v>1381</v>
-      </c>
-      <c r="D1182" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1182" s="0" t="s">
-        <v>1379</v>
-      </c>
-      <c r="F1182" s="0" t="s">
-        <v>1380</v>
       </c>
       <c r="G1182" s="0" t="s">
         <v>27</v>
@@ -32997,16 +32981,16 @@
         <v>9</v>
       </c>
       <c r="C1183" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D1183" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1183" s="0" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="F1183" s="0" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="G1183" s="0" t="s">
         <v>27</v>
@@ -33020,16 +33004,16 @@
         <v>9</v>
       </c>
       <c r="C1184" s="0" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D1184" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1184" s="0" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F1184" s="0" t="s">
         <v>1384</v>
-      </c>
-      <c r="D1184" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1184" s="0" t="s">
-        <v>1382</v>
-      </c>
-      <c r="F1184" s="0" t="s">
-        <v>1383</v>
       </c>
       <c r="G1184" s="0" t="s">
         <v>27</v>
@@ -33043,16 +33027,16 @@
         <v>9</v>
       </c>
       <c r="C1185" s="0" t="s">
-        <v>205</v>
+        <v>1385</v>
       </c>
       <c r="D1185" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1185" s="0" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="F1185" s="0" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="G1185" s="0" t="s">
         <v>27</v>
@@ -33066,16 +33050,16 @@
         <v>9</v>
       </c>
       <c r="C1186" s="0" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="D1186" s="0" t="s">
         <v>17</v>
       </c>
       <c r="E1186" s="0" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="F1186" s="0" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="G1186" s="0" t="s">
         <v>27</v>
@@ -33089,7 +33073,7 @@
         <v>9</v>
       </c>
       <c r="C1187" s="0" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="D1187" s="0" t="s">
         <v>11</v>
@@ -33112,7 +33096,7 @@
         <v>9</v>
       </c>
       <c r="C1188" s="0" t="s">
-        <v>1384</v>
+        <v>1390</v>
       </c>
       <c r="D1188" s="0" t="s">
         <v>17</v>
@@ -33129,22 +33113,22 @@
     </row>
     <row r="1189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1189" s="0" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B1189" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1189" s="0" t="s">
-        <v>1384</v>
+        <v>715</v>
       </c>
       <c r="D1189" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1189" s="0" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="F1189" s="0" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G1189" s="0" t="s">
         <v>27</v>
@@ -33152,22 +33136,22 @@
     </row>
     <row r="1190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1190" s="0" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B1190" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1190" s="0" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D1190" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1190" s="0" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F1190" s="0" t="s">
         <v>1392</v>
-      </c>
-      <c r="D1190" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1190" s="0" t="s">
-        <v>1390</v>
-      </c>
-      <c r="F1190" s="0" t="s">
-        <v>1391</v>
       </c>
       <c r="G1190" s="0" t="s">
         <v>27</v>
@@ -33181,16 +33165,16 @@
         <v>9</v>
       </c>
       <c r="C1191" s="0" t="s">
-        <v>715</v>
+        <v>1394</v>
       </c>
       <c r="D1191" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1191" s="0" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="F1191" s="0" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="G1191" s="0" t="s">
         <v>27</v>
@@ -33204,16 +33188,16 @@
         <v>9</v>
       </c>
       <c r="C1192" s="0" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D1192" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1192" s="0" t="s">
         <v>1395</v>
       </c>
-      <c r="D1192" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1192" s="0" t="s">
-        <v>1393</v>
-      </c>
       <c r="F1192" s="0" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="G1192" s="0" t="s">
         <v>27</v>
@@ -33227,7 +33211,7 @@
         <v>9</v>
       </c>
       <c r="C1193" s="0" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="D1193" s="0" t="s">
         <v>11</v>
@@ -33250,7 +33234,7 @@
         <v>9</v>
       </c>
       <c r="C1194" s="0" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="D1194" s="0" t="s">
         <v>17</v>
@@ -33273,16 +33257,16 @@
         <v>9</v>
       </c>
       <c r="C1195" s="0" t="s">
-        <v>1395</v>
+        <v>776</v>
       </c>
       <c r="D1195" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1195" s="0" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="F1195" s="0" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="G1195" s="0" t="s">
         <v>27</v>
@@ -33296,16 +33280,16 @@
         <v>9</v>
       </c>
       <c r="C1196" s="0" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D1196" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1196" s="0" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F1196" s="0" t="s">
         <v>1401</v>
-      </c>
-      <c r="D1196" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1196" s="0" t="s">
-        <v>1399</v>
-      </c>
-      <c r="F1196" s="0" t="s">
-        <v>1400</v>
       </c>
       <c r="G1196" s="0" t="s">
         <v>27</v>
@@ -33319,16 +33303,16 @@
         <v>9</v>
       </c>
       <c r="C1197" s="0" t="s">
-        <v>776</v>
+        <v>236</v>
       </c>
       <c r="D1197" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1197" s="0" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="F1197" s="0" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="G1197" s="0" t="s">
         <v>27</v>
@@ -33342,16 +33326,16 @@
         <v>9</v>
       </c>
       <c r="C1198" s="0" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D1198" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1198" s="0" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F1198" s="0" t="s">
         <v>1404</v>
-      </c>
-      <c r="D1198" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1198" s="0" t="s">
-        <v>1402</v>
-      </c>
-      <c r="F1198" s="0" t="s">
-        <v>1403</v>
       </c>
       <c r="G1198" s="0" t="s">
         <v>27</v>
@@ -33365,16 +33349,16 @@
         <v>9</v>
       </c>
       <c r="C1199" s="0" t="s">
-        <v>236</v>
+        <v>1405</v>
       </c>
       <c r="D1199" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1199" s="0" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="F1199" s="0" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="G1199" s="0" t="s">
         <v>27</v>
@@ -33388,16 +33372,16 @@
         <v>9</v>
       </c>
       <c r="C1200" s="0" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D1200" s="0" t="s">
         <v>17</v>
       </c>
       <c r="E1200" s="0" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="F1200" s="0" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="G1200" s="0" t="s">
         <v>27</v>
@@ -33411,7 +33395,7 @@
         <v>9</v>
       </c>
       <c r="C1201" s="0" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="D1201" s="0" t="s">
         <v>11</v>
@@ -33434,7 +33418,7 @@
         <v>9</v>
       </c>
       <c r="C1202" s="0" t="s">
-        <v>1404</v>
+        <v>1410</v>
       </c>
       <c r="D1202" s="0" t="s">
         <v>17</v>
@@ -33457,16 +33441,16 @@
         <v>9</v>
       </c>
       <c r="C1203" s="0" t="s">
-        <v>1404</v>
+        <v>410</v>
       </c>
       <c r="D1203" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1203" s="0" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="F1203" s="0" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="G1203" s="0" t="s">
         <v>27</v>
@@ -33480,16 +33464,16 @@
         <v>9</v>
       </c>
       <c r="C1204" s="0" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D1204" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1204" s="0" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F1204" s="0" t="s">
         <v>1412</v>
-      </c>
-      <c r="D1204" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1204" s="0" t="s">
-        <v>1410</v>
-      </c>
-      <c r="F1204" s="0" t="s">
-        <v>1411</v>
       </c>
       <c r="G1204" s="0" t="s">
         <v>27</v>
@@ -33503,16 +33487,16 @@
         <v>9</v>
       </c>
       <c r="C1205" s="0" t="s">
-        <v>410</v>
+        <v>1414</v>
       </c>
       <c r="D1205" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1205" s="0" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="F1205" s="0" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="G1205" s="0" t="s">
         <v>27</v>
@@ -33526,16 +33510,16 @@
         <v>9</v>
       </c>
       <c r="C1206" s="0" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D1206" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1206" s="0" t="s">
         <v>1415</v>
       </c>
-      <c r="D1206" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1206" s="0" t="s">
-        <v>1413</v>
-      </c>
       <c r="F1206" s="0" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="G1206" s="0" t="s">
         <v>27</v>
@@ -33549,7 +33533,7 @@
         <v>9</v>
       </c>
       <c r="C1207" s="0" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="D1207" s="0" t="s">
         <v>11</v>
@@ -33572,7 +33556,7 @@
         <v>9</v>
       </c>
       <c r="C1208" s="0" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="D1208" s="0" t="s">
         <v>17</v>
@@ -33589,22 +33573,22 @@
     </row>
     <row r="1209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1209" s="0" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B1209" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1209" s="0" t="s">
-        <v>1415</v>
+        <v>388</v>
       </c>
       <c r="D1209" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1209" s="0" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="F1209" s="0" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G1209" s="0" t="s">
         <v>27</v>
@@ -33612,22 +33596,22 @@
     </row>
     <row r="1210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1210" s="0" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B1210" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1210" s="0" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D1210" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1210" s="0" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F1210" s="0" t="s">
         <v>1421</v>
-      </c>
-      <c r="D1210" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1210" s="0" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F1210" s="0" t="s">
-        <v>1420</v>
       </c>
       <c r="G1210" s="0" t="s">
         <v>27</v>
@@ -33641,16 +33625,16 @@
         <v>9</v>
       </c>
       <c r="C1211" s="0" t="s">
-        <v>388</v>
+        <v>1423</v>
       </c>
       <c r="D1211" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1211" s="0" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="F1211" s="0" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="G1211" s="0" t="s">
         <v>27</v>
@@ -33664,16 +33648,16 @@
         <v>9</v>
       </c>
       <c r="C1212" s="0" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D1212" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1212" s="0" t="s">
         <v>1424</v>
       </c>
-      <c r="D1212" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1212" s="0" t="s">
-        <v>1422</v>
-      </c>
       <c r="F1212" s="0" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="G1212" s="0" t="s">
         <v>27</v>
@@ -33687,7 +33671,7 @@
         <v>9</v>
       </c>
       <c r="C1213" s="0" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="D1213" s="0" t="s">
         <v>11</v>
@@ -33710,7 +33694,7 @@
         <v>9</v>
       </c>
       <c r="C1214" s="0" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="D1214" s="0" t="s">
         <v>17</v>
@@ -33727,22 +33711,22 @@
     </row>
     <row r="1215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1215" s="0" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="B1215" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1215" s="0" t="s">
-        <v>1424</v>
+        <v>829</v>
       </c>
       <c r="D1215" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1215" s="0" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="F1215" s="0" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="G1215" s="0" t="s">
         <v>27</v>
@@ -33750,22 +33734,22 @@
     </row>
     <row r="1216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1216" s="0" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="B1216" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1216" s="0" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D1216" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1216" s="0" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F1216" s="0" t="s">
         <v>1430</v>
-      </c>
-      <c r="D1216" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1216" s="0" t="s">
-        <v>1428</v>
-      </c>
-      <c r="F1216" s="0" t="s">
-        <v>1429</v>
       </c>
       <c r="G1216" s="0" t="s">
         <v>27</v>
@@ -33779,16 +33763,16 @@
         <v>9</v>
       </c>
       <c r="C1217" s="0" t="s">
-        <v>829</v>
+        <v>1432</v>
       </c>
       <c r="D1217" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1217" s="0" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="F1217" s="0" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="G1217" s="0" t="s">
         <v>27</v>
@@ -33802,16 +33786,16 @@
         <v>9</v>
       </c>
       <c r="C1218" s="0" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D1218" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1218" s="0" t="s">
         <v>1433</v>
       </c>
-      <c r="D1218" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1218" s="0" t="s">
-        <v>1431</v>
-      </c>
       <c r="F1218" s="0" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="G1218" s="0" t="s">
         <v>27</v>
@@ -33825,7 +33809,7 @@
         <v>9</v>
       </c>
       <c r="C1219" s="0" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="D1219" s="0" t="s">
         <v>11</v>
@@ -33848,7 +33832,7 @@
         <v>9</v>
       </c>
       <c r="C1220" s="0" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="D1220" s="0" t="s">
         <v>17</v>
@@ -33865,22 +33849,22 @@
     </row>
     <row r="1221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1221" s="0" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="B1221" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1221" s="0" t="s">
-        <v>1433</v>
+        <v>1123</v>
       </c>
       <c r="D1221" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1221" s="0" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="F1221" s="0" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G1221" s="0" t="s">
         <v>27</v>
@@ -33888,22 +33872,22 @@
     </row>
     <row r="1222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1222" s="0" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="B1222" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1222" s="0" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D1222" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1222" s="0" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F1222" s="0" t="s">
         <v>1439</v>
-      </c>
-      <c r="D1222" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1222" s="0" t="s">
-        <v>1437</v>
-      </c>
-      <c r="F1222" s="0" t="s">
-        <v>1438</v>
       </c>
       <c r="G1222" s="0" t="s">
         <v>27</v>
@@ -33917,16 +33901,16 @@
         <v>9</v>
       </c>
       <c r="C1223" s="0" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="D1223" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1223" s="0" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="F1223" s="0" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="G1223" s="0" t="s">
         <v>27</v>
@@ -33940,16 +33924,16 @@
         <v>9</v>
       </c>
       <c r="C1224" s="0" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D1224" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1224" s="0" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F1224" s="0" t="s">
         <v>1442</v>
-      </c>
-      <c r="D1224" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1224" s="0" t="s">
-        <v>1440</v>
-      </c>
-      <c r="F1224" s="0" t="s">
-        <v>1441</v>
       </c>
       <c r="G1224" s="0" t="s">
         <v>27</v>
@@ -33963,16 +33947,16 @@
         <v>9</v>
       </c>
       <c r="C1225" s="0" t="s">
-        <v>1126</v>
+        <v>1443</v>
       </c>
       <c r="D1225" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1225" s="0" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="F1225" s="0" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="G1225" s="0" t="s">
         <v>27</v>
@@ -33986,16 +33970,16 @@
         <v>9</v>
       </c>
       <c r="C1226" s="0" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="D1226" s="0" t="s">
         <v>17</v>
       </c>
       <c r="E1226" s="0" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="F1226" s="0" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="G1226" s="0" t="s">
         <v>27</v>
@@ -34009,7 +33993,7 @@
         <v>9</v>
       </c>
       <c r="C1227" s="0" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="D1227" s="0" t="s">
         <v>11</v>
@@ -34032,7 +34016,7 @@
         <v>9</v>
       </c>
       <c r="C1228" s="0" t="s">
-        <v>1442</v>
+        <v>1448</v>
       </c>
       <c r="D1228" s="0" t="s">
         <v>17</v>
@@ -34049,22 +34033,22 @@
     </row>
     <row r="1229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1229" s="0" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B1229" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1229" s="0" t="s">
-        <v>1442</v>
+        <v>168</v>
       </c>
       <c r="D1229" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1229" s="0" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="F1229" s="0" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="G1229" s="0" t="s">
         <v>27</v>
@@ -34072,22 +34056,22 @@
     </row>
     <row r="1230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1230" s="0" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B1230" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1230" s="0" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D1230" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1230" s="0" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F1230" s="0" t="s">
         <v>1450</v>
-      </c>
-      <c r="D1230" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1230" s="0" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F1230" s="0" t="s">
-        <v>1449</v>
       </c>
       <c r="G1230" s="0" t="s">
         <v>27</v>
@@ -34101,16 +34085,16 @@
         <v>9</v>
       </c>
       <c r="C1231" s="0" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="D1231" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1231" s="0" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="F1231" s="0" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="G1231" s="0" t="s">
         <v>27</v>
@@ -34124,16 +34108,16 @@
         <v>9</v>
       </c>
       <c r="C1232" s="0" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D1232" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1232" s="0" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F1232" s="0" t="s">
         <v>1453</v>
-      </c>
-      <c r="D1232" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1232" s="0" t="s">
-        <v>1451</v>
-      </c>
-      <c r="F1232" s="0" t="s">
-        <v>1452</v>
       </c>
       <c r="G1232" s="0" t="s">
         <v>27</v>
@@ -34147,16 +34131,16 @@
         <v>9</v>
       </c>
       <c r="C1233" s="0" t="s">
-        <v>76</v>
+        <v>1454</v>
       </c>
       <c r="D1233" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1233" s="0" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="F1233" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="G1233" s="0" t="s">
         <v>27</v>
@@ -34170,16 +34154,16 @@
         <v>9</v>
       </c>
       <c r="C1234" s="0" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D1234" s="0" t="s">
         <v>17</v>
       </c>
       <c r="E1234" s="0" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="F1234" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="G1234" s="0" t="s">
         <v>27</v>
@@ -34193,7 +34177,7 @@
         <v>9</v>
       </c>
       <c r="C1235" s="0" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="D1235" s="0" t="s">
         <v>11</v>
@@ -34216,7 +34200,7 @@
         <v>9</v>
       </c>
       <c r="C1236" s="0" t="s">
-        <v>1453</v>
+        <v>1459</v>
       </c>
       <c r="D1236" s="0" t="s">
         <v>17</v>
@@ -34233,22 +34217,22 @@
     </row>
     <row r="1237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1237" s="0" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B1237" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1237" s="0" t="s">
-        <v>1453</v>
+        <v>876</v>
       </c>
       <c r="D1237" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1237" s="0" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="F1237" s="0" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="G1237" s="0" t="s">
         <v>27</v>
@@ -34256,22 +34240,22 @@
     </row>
     <row r="1238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1238" s="0" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B1238" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1238" s="0" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D1238" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1238" s="0" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F1238" s="0" t="s">
         <v>1461</v>
-      </c>
-      <c r="D1238" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1238" s="0" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F1238" s="0" t="s">
-        <v>1460</v>
       </c>
       <c r="G1238" s="0" t="s">
         <v>27</v>
@@ -34285,16 +34269,16 @@
         <v>9</v>
       </c>
       <c r="C1239" s="0" t="s">
-        <v>876</v>
+        <v>1463</v>
       </c>
       <c r="D1239" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1239" s="0" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="F1239" s="0" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="G1239" s="0" t="s">
         <v>27</v>
@@ -34308,16 +34292,16 @@
         <v>9</v>
       </c>
       <c r="C1240" s="0" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D1240" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1240" s="0" t="s">
         <v>1464</v>
       </c>
-      <c r="D1240" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1240" s="0" t="s">
-        <v>1462</v>
-      </c>
       <c r="F1240" s="0" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="G1240" s="0" t="s">
         <v>27</v>
@@ -34331,7 +34315,7 @@
         <v>9</v>
       </c>
       <c r="C1241" s="0" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="D1241" s="0" t="s">
         <v>11</v>
@@ -34354,7 +34338,7 @@
         <v>9</v>
       </c>
       <c r="C1242" s="0" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="D1242" s="0" t="s">
         <v>17</v>
@@ -34371,22 +34355,22 @@
     </row>
     <row r="1243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1243" s="0" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B1243" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1243" s="0" t="s">
-        <v>1464</v>
+        <v>929</v>
       </c>
       <c r="D1243" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1243" s="0" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="F1243" s="0" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="G1243" s="0" t="s">
         <v>27</v>
@@ -34394,22 +34378,22 @@
     </row>
     <row r="1244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1244" s="0" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B1244" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1244" s="0" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D1244" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1244" s="0" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F1244" s="0" t="s">
         <v>1470</v>
-      </c>
-      <c r="D1244" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1244" s="0" t="s">
-        <v>1468</v>
-      </c>
-      <c r="F1244" s="0" t="s">
-        <v>1469</v>
       </c>
       <c r="G1244" s="0" t="s">
         <v>27</v>
@@ -34423,16 +34407,16 @@
         <v>9</v>
       </c>
       <c r="C1245" s="0" t="s">
-        <v>929</v>
+        <v>1472</v>
       </c>
       <c r="D1245" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1245" s="0" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="F1245" s="0" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="G1245" s="0" t="s">
         <v>27</v>
@@ -34446,16 +34430,16 @@
         <v>9</v>
       </c>
       <c r="C1246" s="0" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D1246" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1246" s="0" t="s">
         <v>1473</v>
       </c>
-      <c r="D1246" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1246" s="0" t="s">
-        <v>1471</v>
-      </c>
       <c r="F1246" s="0" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="G1246" s="0" t="s">
         <v>27</v>
@@ -34469,7 +34453,7 @@
         <v>9</v>
       </c>
       <c r="C1247" s="0" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="D1247" s="0" t="s">
         <v>11</v>
@@ -34492,7 +34476,7 @@
         <v>9</v>
       </c>
       <c r="C1248" s="0" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="D1248" s="0" t="s">
         <v>17</v>
@@ -34509,22 +34493,22 @@
     </row>
     <row r="1249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1249" s="0" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B1249" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1249" s="0" t="s">
-        <v>1473</v>
+        <v>891</v>
       </c>
       <c r="D1249" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1249" s="0" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="F1249" s="0" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="G1249" s="0" t="s">
         <v>27</v>
@@ -34532,22 +34516,22 @@
     </row>
     <row r="1250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1250" s="0" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B1250" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1250" s="0" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D1250" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1250" s="0" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F1250" s="0" t="s">
         <v>1479</v>
-      </c>
-      <c r="D1250" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1250" s="0" t="s">
-        <v>1477</v>
-      </c>
-      <c r="F1250" s="0" t="s">
-        <v>1478</v>
       </c>
       <c r="G1250" s="0" t="s">
         <v>27</v>
@@ -34561,16 +34545,16 @@
         <v>9</v>
       </c>
       <c r="C1251" s="0" t="s">
-        <v>891</v>
+        <v>1481</v>
       </c>
       <c r="D1251" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1251" s="0" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="F1251" s="0" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="G1251" s="0" t="s">
         <v>27</v>
@@ -34584,16 +34568,16 @@
         <v>9</v>
       </c>
       <c r="C1252" s="0" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D1252" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1252" s="0" t="s">
         <v>1482</v>
       </c>
-      <c r="D1252" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1252" s="0" t="s">
-        <v>1480</v>
-      </c>
       <c r="F1252" s="0" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="G1252" s="0" t="s">
         <v>27</v>
@@ -34607,7 +34591,7 @@
         <v>9</v>
       </c>
       <c r="C1253" s="0" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="D1253" s="0" t="s">
         <v>11</v>
@@ -34630,7 +34614,7 @@
         <v>9</v>
       </c>
       <c r="C1254" s="0" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="D1254" s="0" t="s">
         <v>17</v>
@@ -34647,22 +34631,22 @@
     </row>
     <row r="1255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1255" s="0" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B1255" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1255" s="0" t="s">
-        <v>1482</v>
+        <v>954</v>
       </c>
       <c r="D1255" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1255" s="0" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="F1255" s="0" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="G1255" s="0" t="s">
         <v>27</v>
@@ -34670,22 +34654,22 @@
     </row>
     <row r="1256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1256" s="0" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B1256" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1256" s="0" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D1256" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1256" s="0" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F1256" s="0" t="s">
         <v>1488</v>
-      </c>
-      <c r="D1256" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1256" s="0" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F1256" s="0" t="s">
-        <v>1487</v>
       </c>
       <c r="G1256" s="0" t="s">
         <v>27</v>
@@ -34699,16 +34683,16 @@
         <v>9</v>
       </c>
       <c r="C1257" s="0" t="s">
-        <v>954</v>
+        <v>409</v>
       </c>
       <c r="D1257" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1257" s="0" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="F1257" s="0" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="G1257" s="0" t="s">
         <v>27</v>
@@ -34722,16 +34706,16 @@
         <v>9</v>
       </c>
       <c r="C1258" s="0" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D1258" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1258" s="0" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F1258" s="0" t="s">
         <v>1491</v>
-      </c>
-      <c r="D1258" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1258" s="0" t="s">
-        <v>1489</v>
-      </c>
-      <c r="F1258" s="0" t="s">
-        <v>1490</v>
       </c>
       <c r="G1258" s="0" t="s">
         <v>27</v>
@@ -34745,16 +34729,16 @@
         <v>9</v>
       </c>
       <c r="C1259" s="0" t="s">
-        <v>409</v>
+        <v>1492</v>
       </c>
       <c r="D1259" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1259" s="0" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="F1259" s="0" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="G1259" s="0" t="s">
         <v>27</v>
@@ -34768,16 +34752,16 @@
         <v>9</v>
       </c>
       <c r="C1260" s="0" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="D1260" s="0" t="s">
         <v>17</v>
       </c>
       <c r="E1260" s="0" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="F1260" s="0" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="G1260" s="0" t="s">
         <v>27</v>
@@ -34791,7 +34775,7 @@
         <v>9</v>
       </c>
       <c r="C1261" s="0" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
       <c r="D1261" s="0" t="s">
         <v>11</v>
@@ -34814,7 +34798,7 @@
         <v>9</v>
       </c>
       <c r="C1262" s="0" t="s">
-        <v>1491</v>
+        <v>1497</v>
       </c>
       <c r="D1262" s="0" t="s">
         <v>17</v>
@@ -34837,16 +34821,16 @@
         <v>9</v>
       </c>
       <c r="C1263" s="0" t="s">
-        <v>1491</v>
+        <v>960</v>
       </c>
       <c r="D1263" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1263" s="0" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="F1263" s="0" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="G1263" s="0" t="s">
         <v>27</v>
@@ -34860,16 +34844,16 @@
         <v>9</v>
       </c>
       <c r="C1264" s="0" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D1264" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1264" s="0" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F1264" s="0" t="s">
         <v>1499</v>
-      </c>
-      <c r="D1264" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1264" s="0" t="s">
-        <v>1497</v>
-      </c>
-      <c r="F1264" s="0" t="s">
-        <v>1498</v>
       </c>
       <c r="G1264" s="0" t="s">
         <v>27</v>
@@ -34883,16 +34867,16 @@
         <v>9</v>
       </c>
       <c r="C1265" s="0" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D1265" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1265" s="0" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="F1265" s="0" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="G1265" s="0" t="s">
         <v>27</v>
@@ -34906,16 +34890,16 @@
         <v>9</v>
       </c>
       <c r="C1266" s="0" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D1266" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1266" s="0" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F1266" s="0" t="s">
         <v>1502</v>
-      </c>
-      <c r="D1266" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1266" s="0" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F1266" s="0" t="s">
-        <v>1501</v>
       </c>
       <c r="G1266" s="0" t="s">
         <v>27</v>
@@ -34929,16 +34913,16 @@
         <v>9</v>
       </c>
       <c r="C1267" s="0" t="s">
-        <v>963</v>
+        <v>1503</v>
       </c>
       <c r="D1267" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1267" s="0" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="F1267" s="0" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="G1267" s="0" t="s">
         <v>27</v>
@@ -34952,16 +34936,16 @@
         <v>9</v>
       </c>
       <c r="C1268" s="0" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="D1268" s="0" t="s">
         <v>17</v>
       </c>
       <c r="E1268" s="0" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="F1268" s="0" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="G1268" s="0" t="s">
         <v>27</v>
@@ -34975,7 +34959,7 @@
         <v>9</v>
       </c>
       <c r="C1269" s="0" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="D1269" s="0" t="s">
         <v>11</v>
@@ -34998,7 +34982,7 @@
         <v>9</v>
       </c>
       <c r="C1270" s="0" t="s">
-        <v>1502</v>
+        <v>1508</v>
       </c>
       <c r="D1270" s="0" t="s">
         <v>17</v>
@@ -35015,22 +34999,22 @@
     </row>
     <row r="1271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1271" s="0" t="s">
-        <v>47</v>
+        <v>478</v>
       </c>
       <c r="B1271" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1271" s="0" t="s">
-        <v>1502</v>
+        <v>984</v>
       </c>
       <c r="D1271" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1271" s="0" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="F1271" s="0" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="G1271" s="0" t="s">
         <v>27</v>
@@ -35038,22 +35022,22 @@
     </row>
     <row r="1272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1272" s="0" t="s">
-        <v>47</v>
+        <v>478</v>
       </c>
       <c r="B1272" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1272" s="0" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D1272" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1272" s="0" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F1272" s="0" t="s">
         <v>1510</v>
-      </c>
-      <c r="D1272" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1272" s="0" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F1272" s="0" t="s">
-        <v>1509</v>
       </c>
       <c r="G1272" s="0" t="s">
         <v>27</v>
@@ -35067,16 +35051,16 @@
         <v>9</v>
       </c>
       <c r="C1273" s="0" t="s">
-        <v>984</v>
+        <v>1512</v>
       </c>
       <c r="D1273" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1273" s="0" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="F1273" s="0" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G1273" s="0" t="s">
         <v>27</v>
@@ -35090,16 +35074,16 @@
         <v>9</v>
       </c>
       <c r="C1274" s="0" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D1274" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1274" s="0" t="s">
         <v>1513</v>
       </c>
-      <c r="D1274" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1274" s="0" t="s">
-        <v>1511</v>
-      </c>
       <c r="F1274" s="0" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G1274" s="0" t="s">
         <v>27</v>
@@ -35113,7 +35097,7 @@
         <v>9</v>
       </c>
       <c r="C1275" s="0" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="D1275" s="0" t="s">
         <v>11</v>
@@ -35136,7 +35120,7 @@
         <v>9</v>
       </c>
       <c r="C1276" s="0" t="s">
-        <v>1513</v>
+        <v>1517</v>
       </c>
       <c r="D1276" s="0" t="s">
         <v>17</v>
@@ -35153,22 +35137,22 @@
     </row>
     <row r="1277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1277" s="0" t="s">
-        <v>478</v>
+        <v>144</v>
       </c>
       <c r="B1277" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1277" s="0" t="s">
-        <v>1513</v>
+        <v>994</v>
       </c>
       <c r="D1277" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1277" s="0" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="F1277" s="0" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="G1277" s="0" t="s">
         <v>27</v>
@@ -35176,22 +35160,22 @@
     </row>
     <row r="1278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1278" s="0" t="s">
-        <v>478</v>
+        <v>144</v>
       </c>
       <c r="B1278" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1278" s="0" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1278" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1278" s="0" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F1278" s="0" t="s">
         <v>1519</v>
-      </c>
-      <c r="D1278" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1278" s="0" t="s">
-        <v>1517</v>
-      </c>
-      <c r="F1278" s="0" t="s">
-        <v>1518</v>
       </c>
       <c r="G1278" s="0" t="s">
         <v>27</v>
@@ -35205,16 +35189,16 @@
         <v>9</v>
       </c>
       <c r="C1279" s="0" t="s">
-        <v>994</v>
+        <v>1521</v>
       </c>
       <c r="D1279" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1279" s="0" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="F1279" s="0" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="G1279" s="0" t="s">
         <v>27</v>
@@ -35228,16 +35212,16 @@
         <v>9</v>
       </c>
       <c r="C1280" s="0" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1280" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1280" s="0" t="s">
         <v>1522</v>
       </c>
-      <c r="D1280" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1280" s="0" t="s">
-        <v>1520</v>
-      </c>
       <c r="F1280" s="0" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="G1280" s="0" t="s">
         <v>27</v>
@@ -35251,7 +35235,7 @@
         <v>9</v>
       </c>
       <c r="C1281" s="0" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="D1281" s="0" t="s">
         <v>11</v>
@@ -35274,7 +35258,7 @@
         <v>9</v>
       </c>
       <c r="C1282" s="0" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="D1282" s="0" t="s">
         <v>17</v>
@@ -35297,16 +35281,16 @@
         <v>9</v>
       </c>
       <c r="C1283" s="0" t="s">
-        <v>1522</v>
+        <v>772</v>
       </c>
       <c r="D1283" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1283" s="0" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="F1283" s="0" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="G1283" s="0" t="s">
         <v>27</v>
@@ -35320,16 +35304,16 @@
         <v>9</v>
       </c>
       <c r="C1284" s="0" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D1284" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1284" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F1284" s="0" t="s">
         <v>1528</v>
-      </c>
-      <c r="D1284" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1284" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="F1284" s="0" t="s">
-        <v>1527</v>
       </c>
       <c r="G1284" s="0" t="s">
         <v>27</v>
@@ -35343,16 +35327,16 @@
         <v>9</v>
       </c>
       <c r="C1285" s="0" t="s">
-        <v>772</v>
+        <v>1530</v>
       </c>
       <c r="D1285" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1285" s="0" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="F1285" s="0" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="G1285" s="0" t="s">
         <v>27</v>
@@ -35366,16 +35350,16 @@
         <v>9</v>
       </c>
       <c r="C1286" s="0" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D1286" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1286" s="0" t="s">
         <v>1531</v>
       </c>
-      <c r="D1286" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1286" s="0" t="s">
-        <v>1529</v>
-      </c>
       <c r="F1286" s="0" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="G1286" s="0" t="s">
         <v>27</v>
@@ -35389,7 +35373,7 @@
         <v>9</v>
       </c>
       <c r="C1287" s="0" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="D1287" s="0" t="s">
         <v>11</v>
@@ -35412,7 +35396,7 @@
         <v>9</v>
       </c>
       <c r="C1288" s="0" t="s">
-        <v>1531</v>
+        <v>1535</v>
       </c>
       <c r="D1288" s="0" t="s">
         <v>17</v>
@@ -35429,22 +35413,22 @@
     </row>
     <row r="1289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1289" s="0" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="B1289" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1289" s="0" t="s">
-        <v>1531</v>
+        <v>1006</v>
       </c>
       <c r="D1289" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1289" s="0" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="F1289" s="0" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="G1289" s="0" t="s">
         <v>27</v>
@@ -35452,22 +35436,22 @@
     </row>
     <row r="1290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1290" s="0" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="B1290" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1290" s="0" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D1290" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1290" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F1290" s="0" t="s">
         <v>1537</v>
-      </c>
-      <c r="D1290" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1290" s="0" t="s">
-        <v>1535</v>
-      </c>
-      <c r="F1290" s="0" t="s">
-        <v>1536</v>
       </c>
       <c r="G1290" s="0" t="s">
         <v>27</v>
@@ -35481,16 +35465,16 @@
         <v>9</v>
       </c>
       <c r="C1291" s="0" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D1291" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1291" s="0" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="F1291" s="0" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="G1291" s="0" t="s">
         <v>27</v>
@@ -35504,16 +35488,16 @@
         <v>9</v>
       </c>
       <c r="C1292" s="0" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D1292" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1292" s="0" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F1292" s="0" t="s">
         <v>1540</v>
-      </c>
-      <c r="D1292" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1292" s="0" t="s">
-        <v>1538</v>
-      </c>
-      <c r="F1292" s="0" t="s">
-        <v>1539</v>
       </c>
       <c r="G1292" s="0" t="s">
         <v>27</v>
@@ -35527,16 +35511,16 @@
         <v>9</v>
       </c>
       <c r="C1293" s="0" t="s">
-        <v>1005</v>
+        <v>1541</v>
       </c>
       <c r="D1293" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1293" s="0" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="F1293" s="0" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="G1293" s="0" t="s">
         <v>27</v>
@@ -35550,16 +35534,16 @@
         <v>9</v>
       </c>
       <c r="C1294" s="0" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="D1294" s="0" t="s">
         <v>17</v>
       </c>
       <c r="E1294" s="0" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="F1294" s="0" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="G1294" s="0" t="s">
         <v>27</v>
@@ -35573,7 +35557,7 @@
         <v>9</v>
       </c>
       <c r="C1295" s="0" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="D1295" s="0" t="s">
         <v>11</v>
@@ -35596,7 +35580,7 @@
         <v>9</v>
       </c>
       <c r="C1296" s="0" t="s">
-        <v>1540</v>
+        <v>1546</v>
       </c>
       <c r="D1296" s="0" t="s">
         <v>17</v>
@@ -35613,370 +35597,370 @@
     </row>
     <row r="1297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1297" s="0" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B1297" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1297" s="0" t="s">
-        <v>1540</v>
+        <v>167</v>
       </c>
       <c r="D1297" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1297" s="0" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="F1297" s="0" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="G1297" s="0" t="s">
-        <v>27</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1298" s="0" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B1298" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1298" s="0" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D1298" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1298" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F1298" s="0" t="s">
         <v>1548</v>
       </c>
-      <c r="D1298" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1298" s="0" t="s">
-        <v>1546</v>
-      </c>
-      <c r="F1298" s="0" t="s">
-        <v>1547</v>
-      </c>
       <c r="G1298" s="0" t="s">
-        <v>27</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1299" s="0" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="B1299" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1299" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D1299" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1299" s="0" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="F1299" s="0" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="G1299" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1300" s="0" t="s">
-        <v>50</v>
+        <v>1147</v>
       </c>
       <c r="B1300" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1300" s="0" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D1300" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1300" s="0" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F1300" s="0" t="s">
         <v>1551</v>
       </c>
-      <c r="D1300" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1300" s="0" t="s">
-        <v>1549</v>
-      </c>
-      <c r="F1300" s="0" t="s">
-        <v>1550</v>
-      </c>
       <c r="G1300" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1301" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B1301" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1301" s="0" t="s">
-        <v>182</v>
+        <v>1553</v>
       </c>
       <c r="D1301" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E1301" s="0" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="F1301" s="0" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="G1301" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1302" s="0" t="s">
-        <v>1147</v>
+        <v>187</v>
       </c>
       <c r="B1302" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1302" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1302" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1302" s="0" t="s">
         <v>1554</v>
       </c>
-      <c r="D1302" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1302" s="0" t="s">
-        <v>1552</v>
-      </c>
       <c r="F1302" s="0" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="G1302" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1303" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B1303" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1303" s="0" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D1303" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1303" s="0" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F1303" s="0" t="s">
         <v>1555</v>
       </c>
-      <c r="D1303" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1303" s="0" t="s">
-        <v>1552</v>
-      </c>
-      <c r="F1303" s="0" t="s">
-        <v>1553</v>
-      </c>
       <c r="G1303" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1304" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B1304" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1304" s="0" t="s">
-        <v>188</v>
+        <v>1553</v>
       </c>
       <c r="D1304" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1304" s="0" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="F1304" s="0" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="G1304" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1305" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B1305" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1305" s="0" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D1305" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1305" s="0" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F1305" s="0" t="s">
         <v>1558</v>
       </c>
-      <c r="D1305" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1305" s="0" t="s">
-        <v>1556</v>
-      </c>
-      <c r="F1305" s="0" t="s">
-        <v>1557</v>
-      </c>
       <c r="G1305" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1306" s="0" t="s">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="B1306" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1306" s="0" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="D1306" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1306" s="0" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="F1306" s="0" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="G1306" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1307" s="0" t="s">
-        <v>185</v>
+        <v>1018</v>
       </c>
       <c r="B1307" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1307" s="0" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D1307" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1307" s="0" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F1307" s="0" t="s">
         <v>1561</v>
       </c>
-      <c r="D1307" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1307" s="0" t="s">
-        <v>1559</v>
-      </c>
-      <c r="F1307" s="0" t="s">
-        <v>1560</v>
-      </c>
       <c r="G1307" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1308" s="0" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B1308" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1308" s="0" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D1308" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1308" s="0" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="F1308" s="0" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="G1308" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1309" s="0" t="s">
-        <v>1018</v>
+        <v>79</v>
       </c>
       <c r="B1309" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1309" s="0" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="D1309" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1309" s="0" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="F1309" s="0" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="G1309" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1310" s="0" t="s">
-        <v>87</v>
+        <v>1216</v>
       </c>
       <c r="B1310" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1310" s="0" t="s">
-        <v>1554</v>
+        <v>1562</v>
       </c>
       <c r="D1310" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E1310" s="0" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="F1310" s="0" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="G1310" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1311" s="0" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B1311" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1311" s="0" t="s">
-        <v>1558</v>
+        <v>1218</v>
       </c>
       <c r="D1311" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1311" s="0" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="F1311" s="0" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="G1311" s="0" t="s">
-        <v>1204</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1312" s="0" t="s">
-        <v>1218</v>
+        <v>23</v>
       </c>
       <c r="B1312" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1312" s="0" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D1312" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1312" s="0" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F1312" s="0" t="s">
         <v>1564</v>
       </c>
-      <c r="D1312" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1312" s="0" t="s">
-        <v>1562</v>
-      </c>
-      <c r="F1312" s="0" t="s">
-        <v>1563</v>
-      </c>
       <c r="G1312" s="0" t="s">
-        <v>1204</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35987,7 +35971,7 @@
         <v>9</v>
       </c>
       <c r="C1313" s="0" t="s">
-        <v>1220</v>
+        <v>1562</v>
       </c>
       <c r="D1313" s="0" t="s">
         <v>11</v>
@@ -36010,7 +35994,7 @@
         <v>9</v>
       </c>
       <c r="C1314" s="0" t="s">
-        <v>1564</v>
+        <v>1223</v>
       </c>
       <c r="D1314" s="0" t="s">
         <v>17</v>
@@ -36033,7 +36017,7 @@
         <v>9</v>
       </c>
       <c r="C1315" s="0" t="s">
-        <v>1564</v>
+        <v>31</v>
       </c>
       <c r="D1315" s="0" t="s">
         <v>11</v>
@@ -36056,7 +36040,7 @@
         <v>9</v>
       </c>
       <c r="C1316" s="0" t="s">
-        <v>1225</v>
+        <v>1569</v>
       </c>
       <c r="D1316" s="0" t="s">
         <v>17</v>
@@ -36079,16 +36063,16 @@
         <v>9</v>
       </c>
       <c r="C1317" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D1317" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1317" s="0" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="F1317" s="0" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="G1317" s="0" t="s">
         <v>27</v>
@@ -36102,16 +36086,16 @@
         <v>9</v>
       </c>
       <c r="C1318" s="0" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D1318" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1318" s="0" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F1318" s="0" t="s">
         <v>1571</v>
-      </c>
-      <c r="D1318" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1318" s="0" t="s">
-        <v>1569</v>
-      </c>
-      <c r="F1318" s="0" t="s">
-        <v>1570</v>
       </c>
       <c r="G1318" s="0" t="s">
         <v>27</v>
@@ -36125,7 +36109,7 @@
         <v>9</v>
       </c>
       <c r="C1319" s="0" t="s">
-        <v>24</v>
+        <v>1229</v>
       </c>
       <c r="D1319" s="0" t="s">
         <v>11</v>
@@ -36148,7 +36132,7 @@
         <v>9</v>
       </c>
       <c r="C1320" s="0" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="D1320" s="0" t="s">
         <v>17</v>
@@ -36171,7 +36155,7 @@
         <v>9</v>
       </c>
       <c r="C1321" s="0" t="s">
-        <v>1231</v>
+        <v>1569</v>
       </c>
       <c r="D1321" s="0" t="s">
         <v>11</v>
@@ -36194,7 +36178,7 @@
         <v>9</v>
       </c>
       <c r="C1322" s="0" t="s">
-        <v>1571</v>
+        <v>1234</v>
       </c>
       <c r="D1322" s="0" t="s">
         <v>17</v>
@@ -36211,13 +36195,13 @@
     </row>
     <row r="1323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1323" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1323" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1323" s="0" t="s">
-        <v>1571</v>
+        <v>233</v>
       </c>
       <c r="D1323" s="0" t="s">
         <v>11</v>
@@ -36234,13 +36218,13 @@
     </row>
     <row r="1324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1324" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1324" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1324" s="0" t="s">
-        <v>1236</v>
+        <v>1578</v>
       </c>
       <c r="D1324" s="0" t="s">
         <v>17</v>
@@ -36263,16 +36247,16 @@
         <v>9</v>
       </c>
       <c r="C1325" s="0" t="s">
-        <v>233</v>
+        <v>1238</v>
       </c>
       <c r="D1325" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1325" s="0" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="F1325" s="0" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="G1325" s="0" t="s">
         <v>27</v>
@@ -36286,16 +36270,16 @@
         <v>9</v>
       </c>
       <c r="C1326" s="0" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D1326" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1326" s="0" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F1326" s="0" t="s">
         <v>1580</v>
-      </c>
-      <c r="D1326" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1326" s="0" t="s">
-        <v>1578</v>
-      </c>
-      <c r="F1326" s="0" t="s">
-        <v>1579</v>
       </c>
       <c r="G1326" s="0" t="s">
         <v>27</v>
@@ -36309,7 +36293,7 @@
         <v>9</v>
       </c>
       <c r="C1327" s="0" t="s">
-        <v>1240</v>
+        <v>1578</v>
       </c>
       <c r="D1327" s="0" t="s">
         <v>11</v>
@@ -36332,7 +36316,7 @@
         <v>9</v>
       </c>
       <c r="C1328" s="0" t="s">
-        <v>1580</v>
+        <v>1243</v>
       </c>
       <c r="D1328" s="0" t="s">
         <v>17</v>
@@ -36349,13 +36333,13 @@
     </row>
     <row r="1329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1329" s="0" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B1329" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1329" s="0" t="s">
-        <v>1580</v>
+        <v>146</v>
       </c>
       <c r="D1329" s="0" t="s">
         <v>11</v>
@@ -36372,13 +36356,13 @@
     </row>
     <row r="1330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1330" s="0" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B1330" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1330" s="0" t="s">
-        <v>1245</v>
+        <v>1585</v>
       </c>
       <c r="D1330" s="0" t="s">
         <v>17</v>
@@ -36401,16 +36385,16 @@
         <v>9</v>
       </c>
       <c r="C1331" s="0" t="s">
-        <v>146</v>
+        <v>260</v>
       </c>
       <c r="D1331" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1331" s="0" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="F1331" s="0" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="G1331" s="0" t="s">
         <v>27</v>
@@ -36424,16 +36408,16 @@
         <v>9</v>
       </c>
       <c r="C1332" s="0" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D1332" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1332" s="0" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F1332" s="0" t="s">
         <v>1587</v>
-      </c>
-      <c r="D1332" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1332" s="0" t="s">
-        <v>1585</v>
-      </c>
-      <c r="F1332" s="0" t="s">
-        <v>1586</v>
       </c>
       <c r="G1332" s="0" t="s">
         <v>27</v>
@@ -36447,7 +36431,7 @@
         <v>9</v>
       </c>
       <c r="C1333" s="0" t="s">
-        <v>260</v>
+        <v>1249</v>
       </c>
       <c r="D1333" s="0" t="s">
         <v>11</v>
@@ -36470,7 +36454,7 @@
         <v>9</v>
       </c>
       <c r="C1334" s="0" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D1334" s="0" t="s">
         <v>17</v>
@@ -36493,7 +36477,7 @@
         <v>9</v>
       </c>
       <c r="C1335" s="0" t="s">
-        <v>1251</v>
+        <v>1585</v>
       </c>
       <c r="D1335" s="0" t="s">
         <v>11</v>
@@ -36516,7 +36500,7 @@
         <v>9</v>
       </c>
       <c r="C1336" s="0" t="s">
-        <v>1587</v>
+        <v>1254</v>
       </c>
       <c r="D1336" s="0" t="s">
         <v>17</v>
@@ -36533,13 +36517,13 @@
     </row>
     <row r="1337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1337" s="0" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B1337" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1337" s="0" t="s">
-        <v>1587</v>
+        <v>243</v>
       </c>
       <c r="D1337" s="0" t="s">
         <v>11</v>
@@ -36556,13 +36540,13 @@
     </row>
     <row r="1338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1338" s="0" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B1338" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1338" s="0" t="s">
-        <v>1256</v>
+        <v>1594</v>
       </c>
       <c r="D1338" s="0" t="s">
         <v>17</v>
@@ -36585,16 +36569,16 @@
         <v>9</v>
       </c>
       <c r="C1339" s="0" t="s">
-        <v>243</v>
+        <v>1258</v>
       </c>
       <c r="D1339" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1339" s="0" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="F1339" s="0" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="G1339" s="0" t="s">
         <v>27</v>
@@ -36608,16 +36592,16 @@
         <v>9</v>
       </c>
       <c r="C1340" s="0" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D1340" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1340" s="0" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F1340" s="0" t="s">
         <v>1596</v>
-      </c>
-      <c r="D1340" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1340" s="0" t="s">
-        <v>1594</v>
-      </c>
-      <c r="F1340" s="0" t="s">
-        <v>1595</v>
       </c>
       <c r="G1340" s="0" t="s">
         <v>27</v>
@@ -36631,7 +36615,7 @@
         <v>9</v>
       </c>
       <c r="C1341" s="0" t="s">
-        <v>1260</v>
+        <v>1594</v>
       </c>
       <c r="D1341" s="0" t="s">
         <v>11</v>
@@ -36654,7 +36638,7 @@
         <v>9</v>
       </c>
       <c r="C1342" s="0" t="s">
-        <v>1596</v>
+        <v>1263</v>
       </c>
       <c r="D1342" s="0" t="s">
         <v>17</v>
@@ -36677,7 +36661,7 @@
         <v>9</v>
       </c>
       <c r="C1343" s="0" t="s">
-        <v>1596</v>
+        <v>471</v>
       </c>
       <c r="D1343" s="0" t="s">
         <v>11</v>
@@ -36700,7 +36684,7 @@
         <v>9</v>
       </c>
       <c r="C1344" s="0" t="s">
-        <v>1265</v>
+        <v>1601</v>
       </c>
       <c r="D1344" s="0" t="s">
         <v>17</v>
@@ -36723,16 +36707,16 @@
         <v>9</v>
       </c>
       <c r="C1345" s="0" t="s">
-        <v>471</v>
+        <v>1267</v>
       </c>
       <c r="D1345" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1345" s="0" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="F1345" s="0" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="G1345" s="0" t="s">
         <v>27</v>
@@ -36746,16 +36730,16 @@
         <v>9</v>
       </c>
       <c r="C1346" s="0" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D1346" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1346" s="0" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F1346" s="0" t="s">
         <v>1603</v>
-      </c>
-      <c r="D1346" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1346" s="0" t="s">
-        <v>1601</v>
-      </c>
-      <c r="F1346" s="0" t="s">
-        <v>1602</v>
       </c>
       <c r="G1346" s="0" t="s">
         <v>27</v>
@@ -36769,7 +36753,7 @@
         <v>9</v>
       </c>
       <c r="C1347" s="0" t="s">
-        <v>1269</v>
+        <v>1601</v>
       </c>
       <c r="D1347" s="0" t="s">
         <v>11</v>
@@ -36792,7 +36776,7 @@
         <v>9</v>
       </c>
       <c r="C1348" s="0" t="s">
-        <v>1603</v>
+        <v>1272</v>
       </c>
       <c r="D1348" s="0" t="s">
         <v>17</v>
@@ -36809,13 +36793,13 @@
     </row>
     <row r="1349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1349" s="0" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B1349" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1349" s="0" t="s">
-        <v>1603</v>
+        <v>138</v>
       </c>
       <c r="D1349" s="0" t="s">
         <v>11</v>
@@ -36832,13 +36816,13 @@
     </row>
     <row r="1350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1350" s="0" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B1350" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1350" s="0" t="s">
-        <v>1274</v>
+        <v>1608</v>
       </c>
       <c r="D1350" s="0" t="s">
         <v>17</v>
@@ -36861,16 +36845,16 @@
         <v>9</v>
       </c>
       <c r="C1351" s="0" t="s">
-        <v>138</v>
+        <v>487</v>
       </c>
       <c r="D1351" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1351" s="0" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="F1351" s="0" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="G1351" s="0" t="s">
         <v>27</v>
@@ -36884,16 +36868,16 @@
         <v>9</v>
       </c>
       <c r="C1352" s="0" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D1352" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1352" s="0" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F1352" s="0" t="s">
         <v>1610</v>
-      </c>
-      <c r="D1352" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1352" s="0" t="s">
-        <v>1608</v>
-      </c>
-      <c r="F1352" s="0" t="s">
-        <v>1609</v>
       </c>
       <c r="G1352" s="0" t="s">
         <v>27</v>
@@ -36907,7 +36891,7 @@
         <v>9</v>
       </c>
       <c r="C1353" s="0" t="s">
-        <v>487</v>
+        <v>1278</v>
       </c>
       <c r="D1353" s="0" t="s">
         <v>11</v>
@@ -36930,7 +36914,7 @@
         <v>9</v>
       </c>
       <c r="C1354" s="0" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D1354" s="0" t="s">
         <v>17</v>
@@ -36953,7 +36937,7 @@
         <v>9</v>
       </c>
       <c r="C1355" s="0" t="s">
-        <v>1280</v>
+        <v>1608</v>
       </c>
       <c r="D1355" s="0" t="s">
         <v>11</v>
@@ -36976,7 +36960,7 @@
         <v>9</v>
       </c>
       <c r="C1356" s="0" t="s">
-        <v>1610</v>
+        <v>1283</v>
       </c>
       <c r="D1356" s="0" t="s">
         <v>17</v>
@@ -36993,13 +36977,13 @@
     </row>
     <row r="1357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1357" s="0" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B1357" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1357" s="0" t="s">
-        <v>1610</v>
+        <v>497</v>
       </c>
       <c r="D1357" s="0" t="s">
         <v>11</v>
@@ -37016,13 +37000,13 @@
     </row>
     <row r="1358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1358" s="0" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B1358" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1358" s="0" t="s">
-        <v>1285</v>
+        <v>1617</v>
       </c>
       <c r="D1358" s="0" t="s">
         <v>17</v>
@@ -37045,16 +37029,16 @@
         <v>9</v>
       </c>
       <c r="C1359" s="0" t="s">
-        <v>497</v>
+        <v>1296</v>
       </c>
       <c r="D1359" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1359" s="0" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="F1359" s="0" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="G1359" s="0" t="s">
         <v>27</v>
@@ -37068,16 +37052,16 @@
         <v>9</v>
       </c>
       <c r="C1360" s="0" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D1360" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1360" s="0" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F1360" s="0" t="s">
         <v>1619</v>
-      </c>
-      <c r="D1360" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1360" s="0" t="s">
-        <v>1617</v>
-      </c>
-      <c r="F1360" s="0" t="s">
-        <v>1618</v>
       </c>
       <c r="G1360" s="0" t="s">
         <v>27</v>
@@ -37091,7 +37075,7 @@
         <v>9</v>
       </c>
       <c r="C1361" s="0" t="s">
-        <v>1298</v>
+        <v>1617</v>
       </c>
       <c r="D1361" s="0" t="s">
         <v>11</v>
@@ -37114,7 +37098,7 @@
         <v>9</v>
       </c>
       <c r="C1362" s="0" t="s">
-        <v>1619</v>
+        <v>1301</v>
       </c>
       <c r="D1362" s="0" t="s">
         <v>17</v>
@@ -37137,7 +37121,7 @@
         <v>9</v>
       </c>
       <c r="C1363" s="0" t="s">
-        <v>1619</v>
+        <v>525</v>
       </c>
       <c r="D1363" s="0" t="s">
         <v>11</v>
@@ -37160,7 +37144,7 @@
         <v>9</v>
       </c>
       <c r="C1364" s="0" t="s">
-        <v>1303</v>
+        <v>1624</v>
       </c>
       <c r="D1364" s="0" t="s">
         <v>17</v>
@@ -37183,16 +37167,16 @@
         <v>9</v>
       </c>
       <c r="C1365" s="0" t="s">
-        <v>525</v>
+        <v>1305</v>
       </c>
       <c r="D1365" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1365" s="0" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="F1365" s="0" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="G1365" s="0" t="s">
         <v>27</v>
@@ -37206,16 +37190,16 @@
         <v>9</v>
       </c>
       <c r="C1366" s="0" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D1366" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1366" s="0" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F1366" s="0" t="s">
         <v>1626</v>
-      </c>
-      <c r="D1366" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1366" s="0" t="s">
-        <v>1624</v>
-      </c>
-      <c r="F1366" s="0" t="s">
-        <v>1625</v>
       </c>
       <c r="G1366" s="0" t="s">
         <v>27</v>
@@ -37229,7 +37213,7 @@
         <v>9</v>
       </c>
       <c r="C1367" s="0" t="s">
-        <v>1307</v>
+        <v>1624</v>
       </c>
       <c r="D1367" s="0" t="s">
         <v>11</v>
@@ -37252,7 +37236,7 @@
         <v>9</v>
       </c>
       <c r="C1368" s="0" t="s">
-        <v>1626</v>
+        <v>1310</v>
       </c>
       <c r="D1368" s="0" t="s">
         <v>17</v>
@@ -37269,13 +37253,13 @@
     </row>
     <row r="1369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1369" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B1369" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1369" s="0" t="s">
-        <v>1626</v>
+        <v>231</v>
       </c>
       <c r="D1369" s="0" t="s">
         <v>11</v>
@@ -37292,13 +37276,13 @@
     </row>
     <row r="1370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1370" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B1370" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1370" s="0" t="s">
-        <v>1312</v>
+        <v>1631</v>
       </c>
       <c r="D1370" s="0" t="s">
         <v>17</v>
@@ -37321,16 +37305,16 @@
         <v>9</v>
       </c>
       <c r="C1371" s="0" t="s">
-        <v>231</v>
+        <v>1314</v>
       </c>
       <c r="D1371" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1371" s="0" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="F1371" s="0" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G1371" s="0" t="s">
         <v>27</v>
@@ -37344,16 +37328,16 @@
         <v>9</v>
       </c>
       <c r="C1372" s="0" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D1372" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1372" s="0" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F1372" s="0" t="s">
         <v>1633</v>
-      </c>
-      <c r="D1372" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1372" s="0" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F1372" s="0" t="s">
-        <v>1632</v>
       </c>
       <c r="G1372" s="0" t="s">
         <v>27</v>
@@ -37367,7 +37351,7 @@
         <v>9</v>
       </c>
       <c r="C1373" s="0" t="s">
-        <v>1316</v>
+        <v>1631</v>
       </c>
       <c r="D1373" s="0" t="s">
         <v>11</v>
@@ -37390,7 +37374,7 @@
         <v>9</v>
       </c>
       <c r="C1374" s="0" t="s">
-        <v>1633</v>
+        <v>1319</v>
       </c>
       <c r="D1374" s="0" t="s">
         <v>17</v>
@@ -37413,7 +37397,7 @@
         <v>9</v>
       </c>
       <c r="C1375" s="0" t="s">
-        <v>1633</v>
+        <v>110</v>
       </c>
       <c r="D1375" s="0" t="s">
         <v>11</v>
@@ -37436,7 +37420,7 @@
         <v>9</v>
       </c>
       <c r="C1376" s="0" t="s">
-        <v>1321</v>
+        <v>1638</v>
       </c>
       <c r="D1376" s="0" t="s">
         <v>17</v>
@@ -37459,16 +37443,16 @@
         <v>9</v>
       </c>
       <c r="C1377" s="0" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D1377" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1377" s="0" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="F1377" s="0" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="G1377" s="0" t="s">
         <v>27</v>
@@ -37482,16 +37466,16 @@
         <v>9</v>
       </c>
       <c r="C1378" s="0" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D1378" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1378" s="0" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F1378" s="0" t="s">
         <v>1640</v>
-      </c>
-      <c r="D1378" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1378" s="0" t="s">
-        <v>1638</v>
-      </c>
-      <c r="F1378" s="0" t="s">
-        <v>1639</v>
       </c>
       <c r="G1378" s="0" t="s">
         <v>27</v>
@@ -37505,7 +37489,7 @@
         <v>9</v>
       </c>
       <c r="C1379" s="0" t="s">
-        <v>40</v>
+        <v>1325</v>
       </c>
       <c r="D1379" s="0" t="s">
         <v>11</v>
@@ -37528,7 +37512,7 @@
         <v>9</v>
       </c>
       <c r="C1380" s="0" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="D1380" s="0" t="s">
         <v>17</v>
@@ -37551,7 +37535,7 @@
         <v>9</v>
       </c>
       <c r="C1381" s="0" t="s">
-        <v>1327</v>
+        <v>1638</v>
       </c>
       <c r="D1381" s="0" t="s">
         <v>11</v>
@@ -37574,7 +37558,7 @@
         <v>9</v>
       </c>
       <c r="C1382" s="0" t="s">
-        <v>1640</v>
+        <v>1330</v>
       </c>
       <c r="D1382" s="0" t="s">
         <v>17</v>
@@ -37591,13 +37575,13 @@
     </row>
     <row r="1383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1383" s="0" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B1383" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1383" s="0" t="s">
-        <v>1640</v>
+        <v>167</v>
       </c>
       <c r="D1383" s="0" t="s">
         <v>11</v>
@@ -37614,13 +37598,13 @@
     </row>
     <row r="1384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1384" s="0" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B1384" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1384" s="0" t="s">
-        <v>1332</v>
+        <v>1647</v>
       </c>
       <c r="D1384" s="0" t="s">
         <v>17</v>
@@ -37643,16 +37627,16 @@
         <v>9</v>
       </c>
       <c r="C1385" s="0" t="s">
-        <v>167</v>
+        <v>1153</v>
       </c>
       <c r="D1385" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1385" s="0" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="F1385" s="0" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="G1385" s="0" t="s">
         <v>27</v>
@@ -37666,16 +37650,16 @@
         <v>9</v>
       </c>
       <c r="C1386" s="0" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D1386" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1386" s="0" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F1386" s="0" t="s">
         <v>1649</v>
-      </c>
-      <c r="D1386" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1386" s="0" t="s">
-        <v>1647</v>
-      </c>
-      <c r="F1386" s="0" t="s">
-        <v>1648</v>
       </c>
       <c r="G1386" s="0" t="s">
         <v>27</v>
@@ -37689,7 +37673,7 @@
         <v>9</v>
       </c>
       <c r="C1387" s="0" t="s">
-        <v>1153</v>
+        <v>1336</v>
       </c>
       <c r="D1387" s="0" t="s">
         <v>11</v>
@@ -37712,7 +37696,7 @@
         <v>9</v>
       </c>
       <c r="C1388" s="0" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="D1388" s="0" t="s">
         <v>17</v>
@@ -37735,7 +37719,7 @@
         <v>9</v>
       </c>
       <c r="C1389" s="0" t="s">
-        <v>1338</v>
+        <v>1647</v>
       </c>
       <c r="D1389" s="0" t="s">
         <v>11</v>
@@ -37758,7 +37742,7 @@
         <v>9</v>
       </c>
       <c r="C1390" s="0" t="s">
-        <v>1649</v>
+        <v>1341</v>
       </c>
       <c r="D1390" s="0" t="s">
         <v>17</v>
@@ -37775,13 +37759,13 @@
     </row>
     <row r="1391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1391" s="0" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B1391" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1391" s="0" t="s">
-        <v>1649</v>
+        <v>490</v>
       </c>
       <c r="D1391" s="0" t="s">
         <v>11</v>
@@ -37798,13 +37782,13 @@
     </row>
     <row r="1392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1392" s="0" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B1392" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1392" s="0" t="s">
-        <v>1343</v>
+        <v>1656</v>
       </c>
       <c r="D1392" s="0" t="s">
         <v>17</v>
@@ -37827,16 +37811,16 @@
         <v>9</v>
       </c>
       <c r="C1393" s="0" t="s">
-        <v>490</v>
+        <v>1345</v>
       </c>
       <c r="D1393" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1393" s="0" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="F1393" s="0" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="G1393" s="0" t="s">
         <v>27</v>
@@ -37850,16 +37834,16 @@
         <v>9</v>
       </c>
       <c r="C1394" s="0" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D1394" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1394" s="0" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F1394" s="0" t="s">
         <v>1658</v>
-      </c>
-      <c r="D1394" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1394" s="0" t="s">
-        <v>1656</v>
-      </c>
-      <c r="F1394" s="0" t="s">
-        <v>1657</v>
       </c>
       <c r="G1394" s="0" t="s">
         <v>27</v>
@@ -37873,7 +37857,7 @@
         <v>9</v>
       </c>
       <c r="C1395" s="0" t="s">
-        <v>1347</v>
+        <v>1656</v>
       </c>
       <c r="D1395" s="0" t="s">
         <v>11</v>
@@ -37896,7 +37880,7 @@
         <v>9</v>
       </c>
       <c r="C1396" s="0" t="s">
-        <v>1658</v>
+        <v>1350</v>
       </c>
       <c r="D1396" s="0" t="s">
         <v>17</v>
@@ -37913,13 +37897,13 @@
     </row>
     <row r="1397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1397" s="0" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="B1397" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1397" s="0" t="s">
-        <v>1658</v>
+        <v>634</v>
       </c>
       <c r="D1397" s="0" t="s">
         <v>11</v>
@@ -37936,13 +37920,13 @@
     </row>
     <row r="1398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1398" s="0" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="B1398" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1398" s="0" t="s">
-        <v>1352</v>
+        <v>1663</v>
       </c>
       <c r="D1398" s="0" t="s">
         <v>17</v>
@@ -37965,16 +37949,16 @@
         <v>9</v>
       </c>
       <c r="C1399" s="0" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D1399" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1399" s="0" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="F1399" s="0" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="G1399" s="0" t="s">
         <v>27</v>
@@ -37988,16 +37972,16 @@
         <v>9</v>
       </c>
       <c r="C1400" s="0" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D1400" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1400" s="0" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F1400" s="0" t="s">
         <v>1665</v>
-      </c>
-      <c r="D1400" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1400" s="0" t="s">
-        <v>1663</v>
-      </c>
-      <c r="F1400" s="0" t="s">
-        <v>1664</v>
       </c>
       <c r="G1400" s="0" t="s">
         <v>27</v>
@@ -38011,7 +37995,7 @@
         <v>9</v>
       </c>
       <c r="C1401" s="0" t="s">
-        <v>637</v>
+        <v>1356</v>
       </c>
       <c r="D1401" s="0" t="s">
         <v>11</v>
@@ -38034,7 +38018,7 @@
         <v>9</v>
       </c>
       <c r="C1402" s="0" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D1402" s="0" t="s">
         <v>17</v>
@@ -38057,7 +38041,7 @@
         <v>9</v>
       </c>
       <c r="C1403" s="0" t="s">
-        <v>1358</v>
+        <v>1663</v>
       </c>
       <c r="D1403" s="0" t="s">
         <v>11</v>
@@ -38080,7 +38064,7 @@
         <v>9</v>
       </c>
       <c r="C1404" s="0" t="s">
-        <v>1665</v>
+        <v>1361</v>
       </c>
       <c r="D1404" s="0" t="s">
         <v>17</v>
@@ -38103,7 +38087,7 @@
         <v>9</v>
       </c>
       <c r="C1405" s="0" t="s">
-        <v>1665</v>
+        <v>673</v>
       </c>
       <c r="D1405" s="0" t="s">
         <v>11</v>
@@ -38126,7 +38110,7 @@
         <v>9</v>
       </c>
       <c r="C1406" s="0" t="s">
-        <v>1363</v>
+        <v>1672</v>
       </c>
       <c r="D1406" s="0" t="s">
         <v>17</v>
@@ -38149,16 +38133,16 @@
         <v>9</v>
       </c>
       <c r="C1407" s="0" t="s">
-        <v>673</v>
+        <v>1365</v>
       </c>
       <c r="D1407" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1407" s="0" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="F1407" s="0" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="G1407" s="0" t="s">
         <v>27</v>
@@ -38172,16 +38156,16 @@
         <v>9</v>
       </c>
       <c r="C1408" s="0" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D1408" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1408" s="0" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F1408" s="0" t="s">
         <v>1674</v>
-      </c>
-      <c r="D1408" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1408" s="0" t="s">
-        <v>1672</v>
-      </c>
-      <c r="F1408" s="0" t="s">
-        <v>1673</v>
       </c>
       <c r="G1408" s="0" t="s">
         <v>27</v>
@@ -38195,7 +38179,7 @@
         <v>9</v>
       </c>
       <c r="C1409" s="0" t="s">
-        <v>1367</v>
+        <v>1672</v>
       </c>
       <c r="D1409" s="0" t="s">
         <v>11</v>
@@ -38218,7 +38202,7 @@
         <v>9</v>
       </c>
       <c r="C1410" s="0" t="s">
-        <v>1674</v>
+        <v>1370</v>
       </c>
       <c r="D1410" s="0" t="s">
         <v>17</v>
@@ -38241,7 +38225,7 @@
         <v>9</v>
       </c>
       <c r="C1411" s="0" t="s">
-        <v>1674</v>
+        <v>920</v>
       </c>
       <c r="D1411" s="0" t="s">
         <v>11</v>
@@ -38264,7 +38248,7 @@
         <v>9</v>
       </c>
       <c r="C1412" s="0" t="s">
-        <v>1372</v>
+        <v>1679</v>
       </c>
       <c r="D1412" s="0" t="s">
         <v>17</v>
@@ -38287,16 +38271,16 @@
         <v>9</v>
       </c>
       <c r="C1413" s="0" t="s">
-        <v>920</v>
+        <v>1374</v>
       </c>
       <c r="D1413" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1413" s="0" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="F1413" s="0" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="G1413" s="0" t="s">
         <v>27</v>
@@ -38310,16 +38294,16 @@
         <v>9</v>
       </c>
       <c r="C1414" s="0" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D1414" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1414" s="0" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F1414" s="0" t="s">
         <v>1681</v>
-      </c>
-      <c r="D1414" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1414" s="0" t="s">
-        <v>1679</v>
-      </c>
-      <c r="F1414" s="0" t="s">
-        <v>1680</v>
       </c>
       <c r="G1414" s="0" t="s">
         <v>27</v>
@@ -38333,7 +38317,7 @@
         <v>9</v>
       </c>
       <c r="C1415" s="0" t="s">
-        <v>1376</v>
+        <v>1679</v>
       </c>
       <c r="D1415" s="0" t="s">
         <v>11</v>
@@ -38356,7 +38340,7 @@
         <v>9</v>
       </c>
       <c r="C1416" s="0" t="s">
-        <v>1681</v>
+        <v>1379</v>
       </c>
       <c r="D1416" s="0" t="s">
         <v>17</v>
@@ -38373,13 +38357,13 @@
     </row>
     <row r="1417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1417" s="0" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B1417" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1417" s="0" t="s">
-        <v>1681</v>
+        <v>206</v>
       </c>
       <c r="D1417" s="0" t="s">
         <v>11</v>
@@ -38396,13 +38380,13 @@
     </row>
     <row r="1418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1418" s="0" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B1418" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1418" s="0" t="s">
-        <v>1381</v>
+        <v>1686</v>
       </c>
       <c r="D1418" s="0" t="s">
         <v>17</v>
@@ -38425,16 +38409,16 @@
         <v>9</v>
       </c>
       <c r="C1419" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D1419" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1419" s="0" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="F1419" s="0" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="G1419" s="0" t="s">
         <v>27</v>
@@ -38448,16 +38432,16 @@
         <v>9</v>
       </c>
       <c r="C1420" s="0" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D1420" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1420" s="0" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F1420" s="0" t="s">
         <v>1688</v>
-      </c>
-      <c r="D1420" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1420" s="0" t="s">
-        <v>1686</v>
-      </c>
-      <c r="F1420" s="0" t="s">
-        <v>1687</v>
       </c>
       <c r="G1420" s="0" t="s">
         <v>27</v>
@@ -38471,7 +38455,7 @@
         <v>9</v>
       </c>
       <c r="C1421" s="0" t="s">
-        <v>205</v>
+        <v>1385</v>
       </c>
       <c r="D1421" s="0" t="s">
         <v>11</v>
@@ -38494,7 +38478,7 @@
         <v>9</v>
       </c>
       <c r="C1422" s="0" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="D1422" s="0" t="s">
         <v>17</v>
@@ -38517,7 +38501,7 @@
         <v>9</v>
       </c>
       <c r="C1423" s="0" t="s">
-        <v>1387</v>
+        <v>1686</v>
       </c>
       <c r="D1423" s="0" t="s">
         <v>11</v>
@@ -38540,7 +38524,7 @@
         <v>9</v>
       </c>
       <c r="C1424" s="0" t="s">
-        <v>1688</v>
+        <v>1390</v>
       </c>
       <c r="D1424" s="0" t="s">
         <v>17</v>
@@ -38557,13 +38541,13 @@
     </row>
     <row r="1425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1425" s="0" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B1425" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1425" s="0" t="s">
-        <v>1688</v>
+        <v>715</v>
       </c>
       <c r="D1425" s="0" t="s">
         <v>11</v>
@@ -38580,13 +38564,13 @@
     </row>
     <row r="1426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1426" s="0" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B1426" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1426" s="0" t="s">
-        <v>1392</v>
+        <v>1695</v>
       </c>
       <c r="D1426" s="0" t="s">
         <v>17</v>
@@ -38609,16 +38593,16 @@
         <v>9</v>
       </c>
       <c r="C1427" s="0" t="s">
-        <v>715</v>
+        <v>1394</v>
       </c>
       <c r="D1427" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1427" s="0" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="F1427" s="0" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="G1427" s="0" t="s">
         <v>27</v>
@@ -38632,16 +38616,16 @@
         <v>9</v>
       </c>
       <c r="C1428" s="0" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D1428" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1428" s="0" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F1428" s="0" t="s">
         <v>1697</v>
-      </c>
-      <c r="D1428" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1428" s="0" t="s">
-        <v>1695</v>
-      </c>
-      <c r="F1428" s="0" t="s">
-        <v>1696</v>
       </c>
       <c r="G1428" s="0" t="s">
         <v>27</v>
@@ -38655,7 +38639,7 @@
         <v>9</v>
       </c>
       <c r="C1429" s="0" t="s">
-        <v>1396</v>
+        <v>1695</v>
       </c>
       <c r="D1429" s="0" t="s">
         <v>11</v>
@@ -38678,7 +38662,7 @@
         <v>9</v>
       </c>
       <c r="C1430" s="0" t="s">
-        <v>1697</v>
+        <v>1399</v>
       </c>
       <c r="D1430" s="0" t="s">
         <v>17</v>
@@ -38701,7 +38685,7 @@
         <v>9</v>
       </c>
       <c r="C1431" s="0" t="s">
-        <v>1697</v>
+        <v>776</v>
       </c>
       <c r="D1431" s="0" t="s">
         <v>11</v>
@@ -38724,7 +38708,7 @@
         <v>9</v>
       </c>
       <c r="C1432" s="0" t="s">
-        <v>1401</v>
+        <v>1702</v>
       </c>
       <c r="D1432" s="0" t="s">
         <v>17</v>
@@ -38747,16 +38731,16 @@
         <v>9</v>
       </c>
       <c r="C1433" s="0" t="s">
-        <v>776</v>
+        <v>236</v>
       </c>
       <c r="D1433" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1433" s="0" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="F1433" s="0" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="G1433" s="0" t="s">
         <v>27</v>
@@ -38770,16 +38754,16 @@
         <v>9</v>
       </c>
       <c r="C1434" s="0" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D1434" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1434" s="0" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F1434" s="0" t="s">
         <v>1704</v>
-      </c>
-      <c r="D1434" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1434" s="0" t="s">
-        <v>1702</v>
-      </c>
-      <c r="F1434" s="0" t="s">
-        <v>1703</v>
       </c>
       <c r="G1434" s="0" t="s">
         <v>27</v>
@@ -38793,7 +38777,7 @@
         <v>9</v>
       </c>
       <c r="C1435" s="0" t="s">
-        <v>236</v>
+        <v>1405</v>
       </c>
       <c r="D1435" s="0" t="s">
         <v>11</v>
@@ -38816,7 +38800,7 @@
         <v>9</v>
       </c>
       <c r="C1436" s="0" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="D1436" s="0" t="s">
         <v>17</v>
@@ -38839,7 +38823,7 @@
         <v>9</v>
       </c>
       <c r="C1437" s="0" t="s">
-        <v>1407</v>
+        <v>1702</v>
       </c>
       <c r="D1437" s="0" t="s">
         <v>11</v>
@@ -38862,7 +38846,7 @@
         <v>9</v>
       </c>
       <c r="C1438" s="0" t="s">
-        <v>1704</v>
+        <v>1410</v>
       </c>
       <c r="D1438" s="0" t="s">
         <v>17</v>
@@ -38885,7 +38869,7 @@
         <v>9</v>
       </c>
       <c r="C1439" s="0" t="s">
-        <v>1704</v>
+        <v>410</v>
       </c>
       <c r="D1439" s="0" t="s">
         <v>11</v>
@@ -38908,7 +38892,7 @@
         <v>9</v>
       </c>
       <c r="C1440" s="0" t="s">
-        <v>1412</v>
+        <v>1711</v>
       </c>
       <c r="D1440" s="0" t="s">
         <v>17</v>
@@ -38931,16 +38915,16 @@
         <v>9</v>
       </c>
       <c r="C1441" s="0" t="s">
-        <v>410</v>
+        <v>1414</v>
       </c>
       <c r="D1441" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1441" s="0" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="F1441" s="0" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="G1441" s="0" t="s">
         <v>27</v>
@@ -38954,16 +38938,16 @@
         <v>9</v>
       </c>
       <c r="C1442" s="0" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D1442" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1442" s="0" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F1442" s="0" t="s">
         <v>1713</v>
-      </c>
-      <c r="D1442" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1442" s="0" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F1442" s="0" t="s">
-        <v>1712</v>
       </c>
       <c r="G1442" s="0" t="s">
         <v>27</v>
@@ -38977,7 +38961,7 @@
         <v>9</v>
       </c>
       <c r="C1443" s="0" t="s">
-        <v>1416</v>
+        <v>1711</v>
       </c>
       <c r="D1443" s="0" t="s">
         <v>11</v>
@@ -39000,7 +38984,7 @@
         <v>9</v>
       </c>
       <c r="C1444" s="0" t="s">
-        <v>1713</v>
+        <v>1419</v>
       </c>
       <c r="D1444" s="0" t="s">
         <v>17</v>
@@ -39017,13 +39001,13 @@
     </row>
     <row r="1445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1445" s="0" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B1445" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1445" s="0" t="s">
-        <v>1713</v>
+        <v>388</v>
       </c>
       <c r="D1445" s="0" t="s">
         <v>11</v>
@@ -39040,13 +39024,13 @@
     </row>
     <row r="1446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1446" s="0" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B1446" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1446" s="0" t="s">
-        <v>1421</v>
+        <v>1718</v>
       </c>
       <c r="D1446" s="0" t="s">
         <v>17</v>
@@ -39069,16 +39053,16 @@
         <v>9</v>
       </c>
       <c r="C1447" s="0" t="s">
-        <v>388</v>
+        <v>1423</v>
       </c>
       <c r="D1447" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1447" s="0" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="F1447" s="0" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="G1447" s="0" t="s">
         <v>27</v>
@@ -39092,16 +39076,16 @@
         <v>9</v>
       </c>
       <c r="C1448" s="0" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D1448" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1448" s="0" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F1448" s="0" t="s">
         <v>1720</v>
-      </c>
-      <c r="D1448" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1448" s="0" t="s">
-        <v>1718</v>
-      </c>
-      <c r="F1448" s="0" t="s">
-        <v>1719</v>
       </c>
       <c r="G1448" s="0" t="s">
         <v>27</v>
@@ -39115,7 +39099,7 @@
         <v>9</v>
       </c>
       <c r="C1449" s="0" t="s">
-        <v>1425</v>
+        <v>1718</v>
       </c>
       <c r="D1449" s="0" t="s">
         <v>11</v>
@@ -39138,7 +39122,7 @@
         <v>9</v>
       </c>
       <c r="C1450" s="0" t="s">
-        <v>1720</v>
+        <v>1428</v>
       </c>
       <c r="D1450" s="0" t="s">
         <v>17</v>
@@ -39155,13 +39139,13 @@
     </row>
     <row r="1451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1451" s="0" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="B1451" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1451" s="0" t="s">
-        <v>1720</v>
+        <v>829</v>
       </c>
       <c r="D1451" s="0" t="s">
         <v>11</v>
@@ -39178,13 +39162,13 @@
     </row>
     <row r="1452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1452" s="0" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="B1452" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1452" s="0" t="s">
-        <v>1430</v>
+        <v>1725</v>
       </c>
       <c r="D1452" s="0" t="s">
         <v>17</v>
@@ -39207,16 +39191,16 @@
         <v>9</v>
       </c>
       <c r="C1453" s="0" t="s">
-        <v>829</v>
+        <v>1432</v>
       </c>
       <c r="D1453" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1453" s="0" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="F1453" s="0" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="G1453" s="0" t="s">
         <v>27</v>
@@ -39230,16 +39214,16 @@
         <v>9</v>
       </c>
       <c r="C1454" s="0" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D1454" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1454" s="0" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F1454" s="0" t="s">
         <v>1727</v>
-      </c>
-      <c r="D1454" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1454" s="0" t="s">
-        <v>1725</v>
-      </c>
-      <c r="F1454" s="0" t="s">
-        <v>1726</v>
       </c>
       <c r="G1454" s="0" t="s">
         <v>27</v>
@@ -39253,7 +39237,7 @@
         <v>9</v>
       </c>
       <c r="C1455" s="0" t="s">
-        <v>1434</v>
+        <v>1725</v>
       </c>
       <c r="D1455" s="0" t="s">
         <v>11</v>
@@ -39276,7 +39260,7 @@
         <v>9</v>
       </c>
       <c r="C1456" s="0" t="s">
-        <v>1727</v>
+        <v>1437</v>
       </c>
       <c r="D1456" s="0" t="s">
         <v>17</v>
@@ -39293,13 +39277,13 @@
     </row>
     <row r="1457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1457" s="0" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="B1457" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1457" s="0" t="s">
-        <v>1727</v>
+        <v>1123</v>
       </c>
       <c r="D1457" s="0" t="s">
         <v>11</v>
@@ -39316,13 +39300,13 @@
     </row>
     <row r="1458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1458" s="0" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="B1458" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1458" s="0" t="s">
-        <v>1439</v>
+        <v>1732</v>
       </c>
       <c r="D1458" s="0" t="s">
         <v>17</v>
@@ -39345,16 +39329,16 @@
         <v>9</v>
       </c>
       <c r="C1459" s="0" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="D1459" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1459" s="0" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="F1459" s="0" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="G1459" s="0" t="s">
         <v>27</v>
@@ -39368,16 +39352,16 @@
         <v>9</v>
       </c>
       <c r="C1460" s="0" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D1460" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1460" s="0" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F1460" s="0" t="s">
         <v>1734</v>
-      </c>
-      <c r="D1460" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1460" s="0" t="s">
-        <v>1732</v>
-      </c>
-      <c r="F1460" s="0" t="s">
-        <v>1733</v>
       </c>
       <c r="G1460" s="0" t="s">
         <v>27</v>
@@ -39391,7 +39375,7 @@
         <v>9</v>
       </c>
       <c r="C1461" s="0" t="s">
-        <v>1126</v>
+        <v>1443</v>
       </c>
       <c r="D1461" s="0" t="s">
         <v>11</v>
@@ -39414,7 +39398,7 @@
         <v>9</v>
       </c>
       <c r="C1462" s="0" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="D1462" s="0" t="s">
         <v>17</v>
@@ -39437,7 +39421,7 @@
         <v>9</v>
       </c>
       <c r="C1463" s="0" t="s">
-        <v>1445</v>
+        <v>1732</v>
       </c>
       <c r="D1463" s="0" t="s">
         <v>11</v>
@@ -39460,7 +39444,7 @@
         <v>9</v>
       </c>
       <c r="C1464" s="0" t="s">
-        <v>1734</v>
+        <v>1448</v>
       </c>
       <c r="D1464" s="0" t="s">
         <v>17</v>
@@ -39477,13 +39461,13 @@
     </row>
     <row r="1465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1465" s="0" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B1465" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1465" s="0" t="s">
-        <v>1734</v>
+        <v>168</v>
       </c>
       <c r="D1465" s="0" t="s">
         <v>11</v>
@@ -39500,13 +39484,13 @@
     </row>
     <row r="1466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1466" s="0" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B1466" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1466" s="0" t="s">
-        <v>1450</v>
+        <v>1741</v>
       </c>
       <c r="D1466" s="0" t="s">
         <v>17</v>
@@ -39529,16 +39513,16 @@
         <v>9</v>
       </c>
       <c r="C1467" s="0" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="D1467" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1467" s="0" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="F1467" s="0" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="G1467" s="0" t="s">
         <v>27</v>
@@ -39552,16 +39536,16 @@
         <v>9</v>
       </c>
       <c r="C1468" s="0" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D1468" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1468" s="0" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F1468" s="0" t="s">
         <v>1743</v>
-      </c>
-      <c r="D1468" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1468" s="0" t="s">
-        <v>1741</v>
-      </c>
-      <c r="F1468" s="0" t="s">
-        <v>1742</v>
       </c>
       <c r="G1468" s="0" t="s">
         <v>27</v>
@@ -39575,7 +39559,7 @@
         <v>9</v>
       </c>
       <c r="C1469" s="0" t="s">
-        <v>76</v>
+        <v>1454</v>
       </c>
       <c r="D1469" s="0" t="s">
         <v>11</v>
@@ -39598,7 +39582,7 @@
         <v>9</v>
       </c>
       <c r="C1470" s="0" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="D1470" s="0" t="s">
         <v>17</v>
@@ -39621,7 +39605,7 @@
         <v>9</v>
       </c>
       <c r="C1471" s="0" t="s">
-        <v>1456</v>
+        <v>1741</v>
       </c>
       <c r="D1471" s="0" t="s">
         <v>11</v>
@@ -39644,7 +39628,7 @@
         <v>9</v>
       </c>
       <c r="C1472" s="0" t="s">
-        <v>1743</v>
+        <v>1459</v>
       </c>
       <c r="D1472" s="0" t="s">
         <v>17</v>
@@ -39661,13 +39645,13 @@
     </row>
     <row r="1473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1473" s="0" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B1473" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1473" s="0" t="s">
-        <v>1743</v>
+        <v>876</v>
       </c>
       <c r="D1473" s="0" t="s">
         <v>11</v>
@@ -39684,13 +39668,13 @@
     </row>
     <row r="1474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1474" s="0" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B1474" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1474" s="0" t="s">
-        <v>1461</v>
+        <v>1750</v>
       </c>
       <c r="D1474" s="0" t="s">
         <v>17</v>
@@ -39713,16 +39697,16 @@
         <v>9</v>
       </c>
       <c r="C1475" s="0" t="s">
-        <v>876</v>
+        <v>1463</v>
       </c>
       <c r="D1475" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1475" s="0" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="F1475" s="0" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="G1475" s="0" t="s">
         <v>27</v>
@@ -39736,16 +39720,16 @@
         <v>9</v>
       </c>
       <c r="C1476" s="0" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D1476" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1476" s="0" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F1476" s="0" t="s">
         <v>1752</v>
-      </c>
-      <c r="D1476" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1476" s="0" t="s">
-        <v>1750</v>
-      </c>
-      <c r="F1476" s="0" t="s">
-        <v>1751</v>
       </c>
       <c r="G1476" s="0" t="s">
         <v>27</v>
@@ -39759,7 +39743,7 @@
         <v>9</v>
       </c>
       <c r="C1477" s="0" t="s">
-        <v>1465</v>
+        <v>1750</v>
       </c>
       <c r="D1477" s="0" t="s">
         <v>11</v>
@@ -39782,7 +39766,7 @@
         <v>9</v>
       </c>
       <c r="C1478" s="0" t="s">
-        <v>1752</v>
+        <v>1468</v>
       </c>
       <c r="D1478" s="0" t="s">
         <v>17</v>
@@ -39799,13 +39783,13 @@
     </row>
     <row r="1479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1479" s="0" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B1479" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1479" s="0" t="s">
-        <v>1752</v>
+        <v>929</v>
       </c>
       <c r="D1479" s="0" t="s">
         <v>11</v>
@@ -39822,13 +39806,13 @@
     </row>
     <row r="1480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1480" s="0" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B1480" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1480" s="0" t="s">
-        <v>1470</v>
+        <v>1757</v>
       </c>
       <c r="D1480" s="0" t="s">
         <v>17</v>
@@ -39851,16 +39835,16 @@
         <v>9</v>
       </c>
       <c r="C1481" s="0" t="s">
-        <v>929</v>
+        <v>1472</v>
       </c>
       <c r="D1481" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1481" s="0" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="F1481" s="0" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="G1481" s="0" t="s">
         <v>27</v>
@@ -39874,16 +39858,16 @@
         <v>9</v>
       </c>
       <c r="C1482" s="0" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D1482" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1482" s="0" t="s">
+        <v>1758</v>
+      </c>
+      <c r="F1482" s="0" t="s">
         <v>1759</v>
-      </c>
-      <c r="D1482" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1482" s="0" t="s">
-        <v>1757</v>
-      </c>
-      <c r="F1482" s="0" t="s">
-        <v>1758</v>
       </c>
       <c r="G1482" s="0" t="s">
         <v>27</v>
@@ -39897,7 +39881,7 @@
         <v>9</v>
       </c>
       <c r="C1483" s="0" t="s">
-        <v>1474</v>
+        <v>1757</v>
       </c>
       <c r="D1483" s="0" t="s">
         <v>11</v>
@@ -39920,7 +39904,7 @@
         <v>9</v>
       </c>
       <c r="C1484" s="0" t="s">
-        <v>1759</v>
+        <v>1477</v>
       </c>
       <c r="D1484" s="0" t="s">
         <v>17</v>
@@ -39937,13 +39921,13 @@
     </row>
     <row r="1485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1485" s="0" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B1485" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1485" s="0" t="s">
-        <v>1759</v>
+        <v>891</v>
       </c>
       <c r="D1485" s="0" t="s">
         <v>11</v>
@@ -39960,13 +39944,13 @@
     </row>
     <row r="1486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1486" s="0" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B1486" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1486" s="0" t="s">
-        <v>1479</v>
+        <v>1764</v>
       </c>
       <c r="D1486" s="0" t="s">
         <v>17</v>
@@ -39989,16 +39973,16 @@
         <v>9</v>
       </c>
       <c r="C1487" s="0" t="s">
-        <v>891</v>
+        <v>1481</v>
       </c>
       <c r="D1487" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1487" s="0" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="F1487" s="0" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="G1487" s="0" t="s">
         <v>27</v>
@@ -40012,16 +39996,16 @@
         <v>9</v>
       </c>
       <c r="C1488" s="0" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D1488" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1488" s="0" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F1488" s="0" t="s">
         <v>1766</v>
-      </c>
-      <c r="D1488" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1488" s="0" t="s">
-        <v>1764</v>
-      </c>
-      <c r="F1488" s="0" t="s">
-        <v>1765</v>
       </c>
       <c r="G1488" s="0" t="s">
         <v>27</v>
@@ -40035,7 +40019,7 @@
         <v>9</v>
       </c>
       <c r="C1489" s="0" t="s">
-        <v>1483</v>
+        <v>1764</v>
       </c>
       <c r="D1489" s="0" t="s">
         <v>11</v>
@@ -40058,7 +40042,7 @@
         <v>9</v>
       </c>
       <c r="C1490" s="0" t="s">
-        <v>1766</v>
+        <v>1486</v>
       </c>
       <c r="D1490" s="0" t="s">
         <v>17</v>
@@ -40075,13 +40059,13 @@
     </row>
     <row r="1491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1491" s="0" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B1491" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1491" s="0" t="s">
-        <v>1766</v>
+        <v>954</v>
       </c>
       <c r="D1491" s="0" t="s">
         <v>11</v>
@@ -40098,13 +40082,13 @@
     </row>
     <row r="1492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1492" s="0" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B1492" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1492" s="0" t="s">
-        <v>1488</v>
+        <v>1771</v>
       </c>
       <c r="D1492" s="0" t="s">
         <v>17</v>
@@ -40127,16 +40111,16 @@
         <v>9</v>
       </c>
       <c r="C1493" s="0" t="s">
-        <v>954</v>
+        <v>409</v>
       </c>
       <c r="D1493" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1493" s="0" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="F1493" s="0" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="G1493" s="0" t="s">
         <v>27</v>
@@ -40150,16 +40134,16 @@
         <v>9</v>
       </c>
       <c r="C1494" s="0" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D1494" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1494" s="0" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F1494" s="0" t="s">
         <v>1773</v>
-      </c>
-      <c r="D1494" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1494" s="0" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F1494" s="0" t="s">
-        <v>1772</v>
       </c>
       <c r="G1494" s="0" t="s">
         <v>27</v>
@@ -40173,7 +40157,7 @@
         <v>9</v>
       </c>
       <c r="C1495" s="0" t="s">
-        <v>409</v>
+        <v>1492</v>
       </c>
       <c r="D1495" s="0" t="s">
         <v>11</v>
@@ -40196,7 +40180,7 @@
         <v>9</v>
       </c>
       <c r="C1496" s="0" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="D1496" s="0" t="s">
         <v>17</v>
@@ -40219,7 +40203,7 @@
         <v>9</v>
       </c>
       <c r="C1497" s="0" t="s">
-        <v>1494</v>
+        <v>1771</v>
       </c>
       <c r="D1497" s="0" t="s">
         <v>11</v>
@@ -40242,7 +40226,7 @@
         <v>9</v>
       </c>
       <c r="C1498" s="0" t="s">
-        <v>1773</v>
+        <v>1497</v>
       </c>
       <c r="D1498" s="0" t="s">
         <v>17</v>
@@ -40265,7 +40249,7 @@
         <v>9</v>
       </c>
       <c r="C1499" s="0" t="s">
-        <v>1773</v>
+        <v>960</v>
       </c>
       <c r="D1499" s="0" t="s">
         <v>11</v>
@@ -40288,7 +40272,7 @@
         <v>9</v>
       </c>
       <c r="C1500" s="0" t="s">
-        <v>1499</v>
+        <v>1780</v>
       </c>
       <c r="D1500" s="0" t="s">
         <v>17</v>
@@ -40311,16 +40295,16 @@
         <v>9</v>
       </c>
       <c r="C1501" s="0" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D1501" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1501" s="0" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="F1501" s="0" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="G1501" s="0" t="s">
         <v>27</v>
@@ -40334,16 +40318,16 @@
         <v>9</v>
       </c>
       <c r="C1502" s="0" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D1502" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1502" s="0" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F1502" s="0" t="s">
         <v>1782</v>
-      </c>
-      <c r="D1502" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1502" s="0" t="s">
-        <v>1780</v>
-      </c>
-      <c r="F1502" s="0" t="s">
-        <v>1781</v>
       </c>
       <c r="G1502" s="0" t="s">
         <v>27</v>
@@ -40357,7 +40341,7 @@
         <v>9</v>
       </c>
       <c r="C1503" s="0" t="s">
-        <v>963</v>
+        <v>1503</v>
       </c>
       <c r="D1503" s="0" t="s">
         <v>11</v>
@@ -40380,7 +40364,7 @@
         <v>9</v>
       </c>
       <c r="C1504" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="D1504" s="0" t="s">
         <v>17</v>
@@ -40403,7 +40387,7 @@
         <v>9</v>
       </c>
       <c r="C1505" s="0" t="s">
-        <v>1505</v>
+        <v>1780</v>
       </c>
       <c r="D1505" s="0" t="s">
         <v>11</v>
@@ -40426,7 +40410,7 @@
         <v>9</v>
       </c>
       <c r="C1506" s="0" t="s">
-        <v>1782</v>
+        <v>1508</v>
       </c>
       <c r="D1506" s="0" t="s">
         <v>17</v>
@@ -40443,13 +40427,13 @@
     </row>
     <row r="1507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1507" s="0" t="s">
-        <v>47</v>
+        <v>478</v>
       </c>
       <c r="B1507" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1507" s="0" t="s">
-        <v>1782</v>
+        <v>984</v>
       </c>
       <c r="D1507" s="0" t="s">
         <v>11</v>
@@ -40466,13 +40450,13 @@
     </row>
     <row r="1508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1508" s="0" t="s">
-        <v>47</v>
+        <v>478</v>
       </c>
       <c r="B1508" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1508" s="0" t="s">
-        <v>1510</v>
+        <v>1789</v>
       </c>
       <c r="D1508" s="0" t="s">
         <v>17</v>
@@ -40495,16 +40479,16 @@
         <v>9</v>
       </c>
       <c r="C1509" s="0" t="s">
-        <v>984</v>
+        <v>1512</v>
       </c>
       <c r="D1509" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1509" s="0" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="F1509" s="0" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="G1509" s="0" t="s">
         <v>27</v>
@@ -40518,16 +40502,16 @@
         <v>9</v>
       </c>
       <c r="C1510" s="0" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D1510" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1510" s="0" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F1510" s="0" t="s">
         <v>1791</v>
-      </c>
-      <c r="D1510" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1510" s="0" t="s">
-        <v>1789</v>
-      </c>
-      <c r="F1510" s="0" t="s">
-        <v>1790</v>
       </c>
       <c r="G1510" s="0" t="s">
         <v>27</v>
@@ -40541,7 +40525,7 @@
         <v>9</v>
       </c>
       <c r="C1511" s="0" t="s">
-        <v>1514</v>
+        <v>1789</v>
       </c>
       <c r="D1511" s="0" t="s">
         <v>11</v>
@@ -40564,7 +40548,7 @@
         <v>9</v>
       </c>
       <c r="C1512" s="0" t="s">
-        <v>1791</v>
+        <v>1517</v>
       </c>
       <c r="D1512" s="0" t="s">
         <v>17</v>
@@ -40581,13 +40565,13 @@
     </row>
     <row r="1513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1513" s="0" t="s">
-        <v>478</v>
+        <v>144</v>
       </c>
       <c r="B1513" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1513" s="0" t="s">
-        <v>1791</v>
+        <v>994</v>
       </c>
       <c r="D1513" s="0" t="s">
         <v>11</v>
@@ -40604,13 +40588,13 @@
     </row>
     <row r="1514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1514" s="0" t="s">
-        <v>478</v>
+        <v>144</v>
       </c>
       <c r="B1514" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1514" s="0" t="s">
-        <v>1519</v>
+        <v>1796</v>
       </c>
       <c r="D1514" s="0" t="s">
         <v>17</v>
@@ -40633,16 +40617,16 @@
         <v>9</v>
       </c>
       <c r="C1515" s="0" t="s">
-        <v>994</v>
+        <v>1521</v>
       </c>
       <c r="D1515" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1515" s="0" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="F1515" s="0" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="G1515" s="0" t="s">
         <v>27</v>
@@ -40656,16 +40640,16 @@
         <v>9</v>
       </c>
       <c r="C1516" s="0" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D1516" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1516" s="0" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F1516" s="0" t="s">
         <v>1798</v>
-      </c>
-      <c r="D1516" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1516" s="0" t="s">
-        <v>1796</v>
-      </c>
-      <c r="F1516" s="0" t="s">
-        <v>1797</v>
       </c>
       <c r="G1516" s="0" t="s">
         <v>27</v>
@@ -40679,7 +40663,7 @@
         <v>9</v>
       </c>
       <c r="C1517" s="0" t="s">
-        <v>1523</v>
+        <v>1796</v>
       </c>
       <c r="D1517" s="0" t="s">
         <v>11</v>
@@ -40702,7 +40686,7 @@
         <v>9</v>
       </c>
       <c r="C1518" s="0" t="s">
-        <v>1798</v>
+        <v>1526</v>
       </c>
       <c r="D1518" s="0" t="s">
         <v>17</v>
@@ -40725,7 +40709,7 @@
         <v>9</v>
       </c>
       <c r="C1519" s="0" t="s">
-        <v>1798</v>
+        <v>772</v>
       </c>
       <c r="D1519" s="0" t="s">
         <v>11</v>
@@ -40748,7 +40732,7 @@
         <v>9</v>
       </c>
       <c r="C1520" s="0" t="s">
-        <v>1528</v>
+        <v>1803</v>
       </c>
       <c r="D1520" s="0" t="s">
         <v>17</v>
@@ -40771,16 +40755,16 @@
         <v>9</v>
       </c>
       <c r="C1521" s="0" t="s">
-        <v>772</v>
+        <v>1530</v>
       </c>
       <c r="D1521" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1521" s="0" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="F1521" s="0" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="G1521" s="0" t="s">
         <v>27</v>
@@ -40794,16 +40778,16 @@
         <v>9</v>
       </c>
       <c r="C1522" s="0" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D1522" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1522" s="0" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F1522" s="0" t="s">
         <v>1805</v>
-      </c>
-      <c r="D1522" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1522" s="0" t="s">
-        <v>1803</v>
-      </c>
-      <c r="F1522" s="0" t="s">
-        <v>1804</v>
       </c>
       <c r="G1522" s="0" t="s">
         <v>27</v>
@@ -40817,7 +40801,7 @@
         <v>9</v>
       </c>
       <c r="C1523" s="0" t="s">
-        <v>1532</v>
+        <v>1803</v>
       </c>
       <c r="D1523" s="0" t="s">
         <v>11</v>
@@ -40840,7 +40824,7 @@
         <v>9</v>
       </c>
       <c r="C1524" s="0" t="s">
-        <v>1805</v>
+        <v>1535</v>
       </c>
       <c r="D1524" s="0" t="s">
         <v>17</v>
@@ -40857,13 +40841,13 @@
     </row>
     <row r="1525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1525" s="0" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="B1525" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1525" s="0" t="s">
-        <v>1805</v>
+        <v>1006</v>
       </c>
       <c r="D1525" s="0" t="s">
         <v>11</v>
@@ -40880,13 +40864,13 @@
     </row>
     <row r="1526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1526" s="0" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="B1526" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C1526" s="0" t="s">
-        <v>1537</v>
+        <v>1810</v>
       </c>
       <c r="D1526" s="0" t="s">
         <v>17</v>
@@ -40909,16 +40893,16 @@
         <v>9</v>
       </c>
       <c r="C1527" s="0" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D1527" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E1527" s="0" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="F1527" s="0" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="G1527" s="0" t="s">
         <v>27</v>
@@ -40932,16 +40916,16 @@
         <v>9</v>
       </c>
       <c r="C1528" s="0" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D1528" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1528" s="0" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F1528" s="0" t="s">
         <v>1812</v>
-      </c>
-      <c r="D1528" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1528" s="0" t="s">
-        <v>1810</v>
-      </c>
-      <c r="F1528" s="0" t="s">
-        <v>1811</v>
       </c>
       <c r="G1528" s="0" t="s">
         <v>27</v>
@@ -40955,7 +40939,7 @@
         <v>9</v>
       </c>
       <c r="C1529" s="0" t="s">
-        <v>1005</v>
+        <v>1541</v>
       </c>
       <c r="D1529" s="0" t="s">
         <v>11</v>
@@ -40978,7 +40962,7 @@
         <v>9</v>
       </c>
       <c r="C1530" s="0" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="D1530" s="0" t="s">
         <v>17</v>
@@ -41001,7 +40985,7 @@
         <v>9</v>
       </c>
       <c r="C1531" s="0" t="s">
-        <v>1543</v>
+        <v>1810</v>
       </c>
       <c r="D1531" s="0" t="s">
         <v>11</v>
@@ -41024,7 +41008,7 @@
         <v>9</v>
       </c>
       <c r="C1532" s="0" t="s">
-        <v>1812</v>
+        <v>1546</v>
       </c>
       <c r="D1532" s="0" t="s">
         <v>17</v>
@@ -41036,52 +41020,6 @@
         <v>1816</v>
       </c>
       <c r="G1532" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="1533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1533" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1533" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1533" s="0" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D1533" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1533" s="0" t="s">
-        <v>1817</v>
-      </c>
-      <c r="F1533" s="0" t="s">
-        <v>1818</v>
-      </c>
-      <c r="G1533" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="1534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1534" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1534" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1534" s="0" t="s">
-        <v>1548</v>
-      </c>
-      <c r="D1534" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1534" s="0" t="s">
-        <v>1817</v>
-      </c>
-      <c r="F1534" s="0" t="s">
-        <v>1818</v>
-      </c>
-      <c r="G1534" s="0" t="s">
         <v>27</v>
       </c>
     </row>
@@ -41116,13 +41054,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1819</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41130,10 +41068,10 @@
         <v>138</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41141,10 +41079,10 @@
         <v>487</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41152,10 +41090,10 @@
         <v>954</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41163,98 +41101,98 @@
         <v>409</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
   </sheetData>
